--- a/Projeto 3/casamento.xlsx
+++ b/Projeto 3/casamento.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabri\Documents\GitHub\CD\Projeto 3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8220"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Data" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="About" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Footnotes" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Settings" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Download" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="v" sheetId="6" r:id="rId8"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="About" sheetId="2" r:id="rId2"/>
+    <sheet name="Footnotes" sheetId="3" r:id="rId3"/>
+    <sheet name="Settings" sheetId="4" r:id="rId4"/>
+    <sheet name="Download" sheetId="5" r:id="rId5"/>
+    <sheet name="v" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -193,8 +201,7 @@
   </si>
   <si>
     <t>Gapminder has compiled the data you see in this graph from several sources, such as official international statistics, various historical sources and our own estimates. 
-The link below takes you to Gapminder’s documentation page, which contains the details on how the compilation was done and the sources for each observation. 
-</t>
+The link below takes you to Gapminder’s documentation page, which contains the details on how the compilation was done and the sources for each observation.</t>
   </si>
   <si>
     <t>France</t>
@@ -674,82 +681,95 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00E-00"/>
-    <numFmt numFmtId="165" formatCode="M/d/yyyy"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <b/>
-      <sz val="10.0"/>
-      <color rgb="FF010000"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="10"/>
       <color rgb="FF010000"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF010000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF010000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF010000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="24.0"/>
+      <sz val="24"/>
       <color rgb="FF010000"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF010000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF3366FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF010000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF010000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF6666CC"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -757,7 +777,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -784,6 +804,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -792,6 +813,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -800,6 +822,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -812,6 +835,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -824,6 +848,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -832,6 +857,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -842,6 +868,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -856,6 +883,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -866,6 +894,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -878,6 +907,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -888,6 +918,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -898,6 +929,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -910,6 +942,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -920,6 +953,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -928,6 +962,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -938,3622 +973,3913 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="67">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="15" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="15" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="14" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DM186"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="CX72" zoomScale="61" workbookViewId="0">
+      <selection activeCell="DM1" sqref="DM1:DM1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.14"/>
-    <col customWidth="1" min="2" max="117" width="9.29"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="117" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.0" customHeight="1">
+    <row r="1" spans="1:117" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5">
-        <v>1616.0</v>
+        <v>1616</v>
       </c>
       <c r="C1" s="5">
-        <v>1666.0</v>
+        <v>1666</v>
       </c>
       <c r="D1" s="5">
-        <v>1685.0</v>
+        <v>1685</v>
       </c>
       <c r="E1" s="5">
-        <v>1710.0</v>
+        <v>1710</v>
       </c>
       <c r="F1" s="5">
-        <v>1716.0</v>
+        <v>1716</v>
       </c>
       <c r="G1" s="5">
-        <v>1735.0</v>
+        <v>1735</v>
       </c>
       <c r="H1" s="5">
-        <v>1760.0</v>
+        <v>1760</v>
       </c>
       <c r="I1" s="5">
-        <v>1766.0</v>
+        <v>1766</v>
       </c>
       <c r="J1" s="5">
-        <v>1775.0</v>
+        <v>1775</v>
       </c>
       <c r="K1" s="5">
-        <v>1780.0</v>
+        <v>1780</v>
       </c>
       <c r="L1" s="5">
-        <v>1785.0</v>
+        <v>1785</v>
       </c>
       <c r="M1" s="5">
-        <v>1791.0</v>
+        <v>1791</v>
       </c>
       <c r="N1" s="5">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="O1" s="5">
-        <v>1810.0</v>
+        <v>1810</v>
       </c>
       <c r="P1" s="5">
-        <v>1815.0</v>
+        <v>1815</v>
       </c>
       <c r="Q1" s="5">
-        <v>1825.0</v>
+        <v>1825</v>
       </c>
       <c r="R1" s="5">
-        <v>1835.0</v>
+        <v>1835</v>
       </c>
       <c r="S1" s="5">
-        <v>1840.0</v>
+        <v>1840</v>
       </c>
       <c r="T1" s="5">
-        <v>1845.0</v>
+        <v>1845</v>
       </c>
       <c r="U1" s="5">
-        <v>1855.0</v>
+        <v>1855</v>
       </c>
       <c r="V1" s="5">
-        <v>1860.0</v>
+        <v>1860</v>
       </c>
       <c r="W1" s="5">
-        <v>1865.0</v>
+        <v>1865</v>
       </c>
       <c r="X1" s="5">
-        <v>1866.0</v>
+        <v>1866</v>
       </c>
       <c r="Y1" s="5">
-        <v>1870.0</v>
+        <v>1870</v>
       </c>
       <c r="Z1" s="5">
-        <v>1875.0</v>
+        <v>1875</v>
       </c>
       <c r="AA1" s="5">
-        <v>1879.0</v>
+        <v>1879</v>
       </c>
       <c r="AB1" s="5">
-        <v>1880.0</v>
+        <v>1880</v>
       </c>
       <c r="AC1" s="5">
-        <v>1885.0</v>
+        <v>1885</v>
       </c>
       <c r="AD1" s="5">
-        <v>1887.0</v>
+        <v>1887</v>
       </c>
       <c r="AE1" s="5">
-        <v>1890.0</v>
+        <v>1890</v>
       </c>
       <c r="AF1" s="5">
-        <v>1895.0</v>
+        <v>1895</v>
       </c>
       <c r="AG1" s="5">
-        <v>1897.0</v>
+        <v>1897</v>
       </c>
       <c r="AH1" s="5">
-        <v>1900.0</v>
+        <v>1900</v>
       </c>
       <c r="AI1" s="5">
-        <v>1901.0</v>
+        <v>1901</v>
       </c>
       <c r="AJ1" s="5">
-        <v>1903.0</v>
+        <v>1903</v>
       </c>
       <c r="AK1" s="5">
-        <v>1905.0</v>
+        <v>1905</v>
       </c>
       <c r="AL1" s="5">
-        <v>1906.0</v>
+        <v>1906</v>
       </c>
       <c r="AM1" s="5">
-        <v>1907.0</v>
+        <v>1907</v>
       </c>
       <c r="AN1" s="5">
-        <v>1910.0</v>
+        <v>1910</v>
       </c>
       <c r="AO1" s="5">
-        <v>1911.0</v>
+        <v>1911</v>
       </c>
       <c r="AP1" s="5">
-        <v>1915.0</v>
+        <v>1915</v>
       </c>
       <c r="AQ1" s="5">
-        <v>1920.0</v>
+        <v>1920</v>
       </c>
       <c r="AR1" s="5">
-        <v>1921.0</v>
+        <v>1921</v>
       </c>
       <c r="AS1" s="5">
-        <v>1925.0</v>
+        <v>1925</v>
       </c>
       <c r="AT1" s="5">
-        <v>1928.0</v>
+        <v>1928</v>
       </c>
       <c r="AU1" s="5">
-        <v>1930.0</v>
+        <v>1930</v>
       </c>
       <c r="AV1" s="5">
-        <v>1931.0</v>
+        <v>1931</v>
       </c>
       <c r="AW1" s="5">
-        <v>1935.0</v>
+        <v>1935</v>
       </c>
       <c r="AX1" s="5">
-        <v>1937.0</v>
+        <v>1937</v>
       </c>
       <c r="AY1" s="5">
-        <v>1939.0</v>
+        <v>1939</v>
       </c>
       <c r="AZ1" s="5">
-        <v>1940.0</v>
+        <v>1940</v>
       </c>
       <c r="BA1" s="5">
-        <v>1941.0</v>
+        <v>1941</v>
       </c>
       <c r="BB1" s="5">
-        <v>1942.0</v>
+        <v>1942</v>
       </c>
       <c r="BC1" s="5">
-        <v>1943.0</v>
+        <v>1943</v>
       </c>
       <c r="BD1" s="5">
-        <v>1944.0</v>
+        <v>1944</v>
       </c>
       <c r="BE1" s="5">
-        <v>1945.0</v>
+        <v>1945</v>
       </c>
       <c r="BF1" s="5">
-        <v>1946.0</v>
+        <v>1946</v>
       </c>
       <c r="BG1" s="5">
-        <v>1947.0</v>
+        <v>1947</v>
       </c>
       <c r="BH1" s="5">
-        <v>1948.0</v>
+        <v>1948</v>
       </c>
       <c r="BI1" s="5">
-        <v>1949.0</v>
+        <v>1949</v>
       </c>
       <c r="BJ1" s="5">
-        <v>1950.0</v>
+        <v>1950</v>
       </c>
       <c r="BK1" s="5">
-        <v>1951.0</v>
+        <v>1951</v>
       </c>
       <c r="BL1" s="5">
-        <v>1952.0</v>
+        <v>1952</v>
       </c>
       <c r="BM1" s="5">
-        <v>1953.0</v>
+        <v>1953</v>
       </c>
       <c r="BN1" s="5">
-        <v>1954.0</v>
+        <v>1954</v>
       </c>
       <c r="BO1" s="5">
-        <v>1955.0</v>
+        <v>1955</v>
       </c>
       <c r="BP1" s="5">
-        <v>1956.0</v>
+        <v>1956</v>
       </c>
       <c r="BQ1" s="5">
-        <v>1957.0</v>
+        <v>1957</v>
       </c>
       <c r="BR1" s="5">
-        <v>1958.0</v>
+        <v>1958</v>
       </c>
       <c r="BS1" s="5">
-        <v>1959.0</v>
+        <v>1959</v>
       </c>
       <c r="BT1" s="5">
-        <v>1960.0</v>
+        <v>1960</v>
       </c>
       <c r="BU1" s="5">
-        <v>1961.0</v>
+        <v>1961</v>
       </c>
       <c r="BV1" s="5">
-        <v>1962.0</v>
+        <v>1962</v>
       </c>
       <c r="BW1" s="5">
-        <v>1963.0</v>
+        <v>1963</v>
       </c>
       <c r="BX1" s="5">
-        <v>1964.0</v>
+        <v>1964</v>
       </c>
       <c r="BY1" s="5">
-        <v>1965.0</v>
+        <v>1965</v>
       </c>
       <c r="BZ1" s="5">
-        <v>1966.0</v>
+        <v>1966</v>
       </c>
       <c r="CA1" s="5">
-        <v>1967.0</v>
+        <v>1967</v>
       </c>
       <c r="CB1" s="5">
-        <v>1968.0</v>
+        <v>1968</v>
       </c>
       <c r="CC1" s="5">
-        <v>1969.0</v>
+        <v>1969</v>
       </c>
       <c r="CD1" s="5">
-        <v>1970.0</v>
+        <v>1970</v>
       </c>
       <c r="CE1" s="5">
-        <v>1971.0</v>
+        <v>1971</v>
       </c>
       <c r="CF1" s="5">
-        <v>1972.0</v>
+        <v>1972</v>
       </c>
       <c r="CG1" s="5">
-        <v>1973.0</v>
+        <v>1973</v>
       </c>
       <c r="CH1" s="5">
-        <v>1974.0</v>
+        <v>1974</v>
       </c>
       <c r="CI1" s="5">
-        <v>1975.0</v>
+        <v>1975</v>
       </c>
       <c r="CJ1" s="5">
-        <v>1976.0</v>
+        <v>1976</v>
       </c>
       <c r="CK1" s="5">
-        <v>1977.0</v>
+        <v>1977</v>
       </c>
       <c r="CL1" s="5">
-        <v>1978.0</v>
+        <v>1978</v>
       </c>
       <c r="CM1" s="5">
-        <v>1979.0</v>
+        <v>1979</v>
       </c>
       <c r="CN1" s="5">
-        <v>1980.0</v>
+        <v>1980</v>
       </c>
       <c r="CO1" s="5">
-        <v>1981.0</v>
+        <v>1981</v>
       </c>
       <c r="CP1" s="5">
-        <v>1982.0</v>
+        <v>1982</v>
       </c>
       <c r="CQ1" s="5">
-        <v>1983.0</v>
+        <v>1983</v>
       </c>
       <c r="CR1" s="5">
-        <v>1984.0</v>
+        <v>1984</v>
       </c>
       <c r="CS1" s="5">
-        <v>1985.0</v>
+        <v>1985</v>
       </c>
       <c r="CT1" s="5">
-        <v>1986.0</v>
+        <v>1986</v>
       </c>
       <c r="CU1" s="5">
-        <v>1987.0</v>
+        <v>1987</v>
       </c>
       <c r="CV1" s="5">
-        <v>1988.0</v>
+        <v>1988</v>
       </c>
       <c r="CW1" s="5">
-        <v>1989.0</v>
+        <v>1989</v>
       </c>
       <c r="CX1" s="5">
-        <v>1990.0</v>
+        <v>1990</v>
       </c>
       <c r="CY1" s="5">
-        <v>1991.0</v>
+        <v>1991</v>
       </c>
       <c r="CZ1" s="5">
-        <v>1992.0</v>
+        <v>1992</v>
       </c>
       <c r="DA1" s="5">
-        <v>1993.0</v>
+        <v>1993</v>
       </c>
       <c r="DB1" s="5">
-        <v>1994.0</v>
+        <v>1994</v>
       </c>
       <c r="DC1" s="5">
-        <v>1995.0</v>
+        <v>1995</v>
       </c>
       <c r="DD1" s="5">
-        <v>1996.0</v>
+        <v>1996</v>
       </c>
       <c r="DE1" s="5">
-        <v>1997.0</v>
+        <v>1997</v>
       </c>
       <c r="DF1" s="5">
-        <v>1998.0</v>
+        <v>1998</v>
       </c>
       <c r="DG1" s="5">
-        <v>1999.0</v>
+        <v>1999</v>
       </c>
       <c r="DH1" s="5">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="DI1" s="5">
-        <v>2001.0</v>
+        <v>2001</v>
       </c>
       <c r="DJ1" s="5">
-        <v>2002.0</v>
+        <v>2002</v>
       </c>
       <c r="DK1" s="5">
-        <v>2003.0</v>
+        <v>2003</v>
       </c>
       <c r="DL1" s="5">
-        <v>2004.0</v>
+        <v>2004</v>
       </c>
       <c r="DM1" s="5">
-        <v>2005.0</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="2" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="CM2" s="9">
-        <v>17.8396832212604</v>
-      </c>
-      <c r="DM2" s="9">
-        <v>17.8396832212604</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="CM2" s="8">
+        <v>17.839683221260401</v>
+      </c>
+      <c r="DM2" s="8">
+        <v>17.839683221260401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="BF3" s="9">
+      <c r="BF3" s="8">
         <v>21.52</v>
       </c>
-      <c r="BO3" s="9">
-        <v>21.0</v>
-      </c>
-      <c r="CD3" s="9">
+      <c r="BO3" s="8">
+        <v>21</v>
+      </c>
+      <c r="CD3" s="8">
         <v>21.5</v>
       </c>
-      <c r="CW3" s="9">
+      <c r="CW3" s="8">
         <v>22.47</v>
       </c>
-      <c r="DM3" s="9">
-        <v>23.326509475708</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="DM3" s="8">
+        <v>23.326509475708001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="BH4" s="9">
-        <v>20.0</v>
-      </c>
-      <c r="BN4" s="9">
-        <v>19.6</v>
-      </c>
-      <c r="BZ4" s="9">
-        <v>18.0</v>
-      </c>
-      <c r="CD4" s="9">
+      <c r="BH4" s="8">
+        <v>20</v>
+      </c>
+      <c r="BN4" s="8">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="BZ4" s="8">
+        <v>18</v>
+      </c>
+      <c r="CD4" s="8">
         <v>19.3</v>
       </c>
-      <c r="CK4" s="9">
+      <c r="CK4" s="8">
         <v>20.9</v>
       </c>
-      <c r="CU4" s="9">
+      <c r="CU4" s="8">
         <v>23.8</v>
       </c>
-      <c r="CZ4" s="9">
+      <c r="CZ4" s="8">
         <v>25.5</v>
       </c>
-      <c r="DF4" s="9">
+      <c r="DF4" s="8">
         <v>27.6</v>
       </c>
-      <c r="DM4" s="9">
+      <c r="DM4" s="8">
         <v>29.6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="CD5" s="9">
+      <c r="CD5" s="8">
         <v>19.3865679534638</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CD6" s="9">
-        <v>23.1086186893428</v>
-      </c>
-      <c r="DM6" s="9">
-        <v>23.2639617919922</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="CD6" s="8">
+        <v>23.108618689342801</v>
+      </c>
+      <c r="DM6" s="8">
+        <v>23.263961791992202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="9">
-        <v>17.0</v>
-      </c>
-      <c r="DM7" s="9">
-        <v>22.9860343933105</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="AG7" s="8">
+        <v>17</v>
+      </c>
+      <c r="DM7" s="8">
+        <v>22.986034393310501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AP8" s="9">
+      <c r="AP8" s="8">
         <v>24.5</v>
       </c>
-      <c r="AQ8" s="9">
+      <c r="AQ8" s="8">
         <v>24.4</v>
       </c>
-      <c r="AS8" s="9">
+      <c r="AS8" s="8">
         <v>24.5</v>
       </c>
-      <c r="AU8" s="9">
-        <v>24.501</v>
-      </c>
-      <c r="AW8" s="9">
+      <c r="AU8" s="8">
+        <v>24.501000000000001</v>
+      </c>
+      <c r="AW8" s="8">
         <v>24.5</v>
       </c>
-      <c r="AZ8" s="9">
+      <c r="AZ8" s="8">
         <v>24.2</v>
       </c>
-      <c r="BE8" s="9">
+      <c r="BE8" s="8">
         <v>23.3</v>
       </c>
-      <c r="BJ8" s="9">
+      <c r="BJ8" s="8">
         <v>22.6</v>
       </c>
-      <c r="BO8" s="9">
+      <c r="BO8" s="8">
         <v>22.1</v>
       </c>
-      <c r="BT8" s="9">
+      <c r="BT8" s="8">
         <v>21.6</v>
       </c>
-      <c r="BY8" s="9">
+      <c r="BY8" s="8">
         <v>21.2</v>
       </c>
-      <c r="CD8" s="9">
+      <c r="CD8" s="8">
         <v>21.1</v>
       </c>
-      <c r="DM8" s="9">
+      <c r="DM8" s="8">
         <v>28.9312553405762</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="BG9" s="9">
+      <c r="BG9" s="8">
         <v>25.9</v>
       </c>
-      <c r="BJ9" s="9">
+      <c r="BJ9" s="8">
         <v>25.3</v>
       </c>
-      <c r="BT9" s="9">
+      <c r="BT9" s="8">
         <v>24.01</v>
       </c>
-      <c r="CD9" s="9">
+      <c r="CD9" s="8">
         <v>22.88</v>
       </c>
-      <c r="CN9" s="9">
+      <c r="CN9" s="8">
         <v>23.15</v>
       </c>
-      <c r="CX9" s="9">
+      <c r="CX9" s="8">
         <v>24.9</v>
       </c>
-      <c r="DM9" s="9">
-        <v>28.9375686645508</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="DM9" s="8">
+        <v>28.937568664550799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AG10" s="9">
+      <c r="AG10" s="8">
         <v>16.2</v>
       </c>
-      <c r="DM10" s="9">
-        <v>23.8863067626953</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="DM10" s="8">
+        <v>23.886306762695298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="CD11" s="9">
-        <v>22.4460809230886</v>
-      </c>
-      <c r="DM11" s="9">
-        <v>27.1927719116211</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="CD11" s="8">
+        <v>22.446080923088601</v>
+      </c>
+      <c r="DM11" s="8">
+        <v>27.192771911621101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="DM12" s="9">
-        <v>25.9046039581299</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="DM12" s="8">
+        <v>25.904603958129901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="8">
         <v>12.6</v>
       </c>
-      <c r="AV13" s="9">
+      <c r="AV13" s="8">
         <v>12.6</v>
       </c>
-      <c r="BA13" s="9">
+      <c r="BA13" s="8">
         <v>13.7</v>
       </c>
-      <c r="BK13" s="9">
+      <c r="BK13" s="8">
         <v>14.4</v>
       </c>
-      <c r="BU13" s="9">
+      <c r="BU13" s="8">
         <v>13.9</v>
       </c>
-      <c r="BY13" s="9">
+      <c r="BY13" s="8">
         <v>14.8</v>
       </c>
-      <c r="CH13" s="9">
-        <v>16.6</v>
-      </c>
-      <c r="CI13" s="9">
-        <v>16.4</v>
-      </c>
-      <c r="CN13" s="9">
-        <v>16.4</v>
-      </c>
-      <c r="CP13" s="9">
+      <c r="CH13" s="8">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="CI13" s="8">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="CN13" s="8">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="CP13" s="8">
         <v>17.7</v>
       </c>
-      <c r="DM13" s="9">
-        <v>18.6699981689453</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="DM13" s="8">
+        <v>18.669998168945298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="CD14" s="9">
-        <v>28.5170807453416</v>
-      </c>
-      <c r="DM14" s="9">
-        <v>31.7680397033691</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="CD14" s="8">
+        <v>28.517080745341602</v>
+      </c>
+      <c r="DM14" s="8">
+        <v>31.768039703369102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AG15" s="9">
+      <c r="AG15" s="8">
         <v>22.7</v>
       </c>
-      <c r="DM15" s="9">
+      <c r="DM15" s="8">
         <v>22.7772026062012</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="8">
         <v>24.9</v>
       </c>
-      <c r="BN16" s="9">
+      <c r="BN16" s="8">
         <v>23.32</v>
       </c>
-      <c r="BT16" s="9">
+      <c r="BT16" s="8">
         <v>22.84</v>
       </c>
-      <c r="CD16" s="9">
+      <c r="CD16" s="8">
         <v>22.35</v>
       </c>
-      <c r="CN16" s="9">
+      <c r="CN16" s="8">
         <v>22.24</v>
       </c>
-      <c r="CW16" s="9">
+      <c r="CW16" s="8">
         <v>23.61</v>
       </c>
-      <c r="DM16" s="9">
-        <v>30.3419761657715</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="DM16" s="8">
+        <v>30.341976165771499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="CD17" s="9">
-        <v>22.6178390137781</v>
-      </c>
-      <c r="DM17" s="9">
+      <c r="CD17" s="8">
+        <v>22.617839013778099</v>
+      </c>
+      <c r="DM17" s="8">
         <v>26.1776332855225</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="CM18" s="9">
-        <v>17.7091836734694</v>
-      </c>
-      <c r="DM18" s="9">
-        <v>20.3333320617676</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="CM18" s="8">
+        <v>17.709183673469401</v>
+      </c>
+      <c r="DM18" s="8">
+        <v>20.333332061767599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="DM19" s="9">
-        <v>20.0859298706055</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="DM19" s="8">
+        <v>20.085929870605501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="CJ20" s="9">
-        <v>22.1285510832652</v>
-      </c>
-      <c r="DM20" s="9">
+      <c r="CJ20" s="8">
+        <v>22.128551083265201</v>
+      </c>
+      <c r="DM20" s="8">
         <v>22.595458984375</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="CE21" s="9">
-        <v>24.930840359296</v>
-      </c>
-      <c r="DM21" s="9">
-        <v>27.1115856170654</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="CE21" s="8">
+        <v>24.930840359295999</v>
+      </c>
+      <c r="DM21" s="8">
+        <v>27.111585617065401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="CD22" s="9">
-        <v>22.9627685382585</v>
-      </c>
-      <c r="DM22" s="9">
-        <v>23.0972957611084</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="CD22" s="8">
+        <v>22.962768538258501</v>
+      </c>
+      <c r="DM22" s="8">
+        <v>23.097295761108398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="BE23" s="9">
-        <v>20.0</v>
-      </c>
-      <c r="BT23" s="9">
+      <c r="BE23" s="8">
+        <v>20</v>
+      </c>
+      <c r="BT23" s="8">
         <v>19.7</v>
       </c>
-      <c r="CE23" s="9">
-        <v>22.3957250958292</v>
-      </c>
-      <c r="DM23" s="9">
-        <v>25.1461029052734</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="CE23" s="8">
+        <v>22.395725095829199</v>
+      </c>
+      <c r="DM23" s="8">
+        <v>25.146102905273398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="BT24" s="9">
+      <c r="BT24" s="8">
         <v>21.32</v>
       </c>
-      <c r="CD24" s="9">
+      <c r="CD24" s="8">
         <v>21.44</v>
       </c>
-      <c r="CW24" s="9">
+      <c r="CW24" s="8">
         <v>21.31</v>
       </c>
-      <c r="DM24" s="9">
-        <v>24.1597919464111</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="DM24" s="8">
+        <v>24.159791946411101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="CI25" s="9">
-        <v>17.4108560667187</v>
-      </c>
-      <c r="DM25" s="9">
-        <v>19.3993968963623</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="CI25" s="8">
+        <v>17.410856066718701</v>
+      </c>
+      <c r="DM25" s="8">
+        <v>19.399396896362301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="CE26" s="9">
+      <c r="CE26" s="8">
         <v>21.7</v>
       </c>
-      <c r="DM26" s="9">
-        <v>22.4630279541016</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="DM26" s="8">
+        <v>22.463027954101602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BV27" s="9">
-        <v>21.267772643983</v>
-      </c>
-      <c r="DM27" s="9">
-        <v>22.3000011444092</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="BV27" s="8">
+        <v>21.267772643983001</v>
+      </c>
+      <c r="DM27" s="8">
+        <v>22.300001144409201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="CJ28" s="9">
+      <c r="CJ28" s="8">
         <v>18.8032004366762</v>
       </c>
-      <c r="DM28" s="9">
-        <v>20.1510601043701</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="DM28" s="8">
+        <v>20.151060104370099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AP29" s="9">
+      <c r="AP29" s="8">
         <v>23.1</v>
       </c>
-      <c r="AQ29" s="9">
-        <v>23.0</v>
-      </c>
-      <c r="AS29" s="9">
+      <c r="AQ29" s="8">
+        <v>23</v>
+      </c>
+      <c r="AS29" s="8">
         <v>23.2</v>
       </c>
-      <c r="AU29" s="9">
+      <c r="AU29" s="8">
         <v>23.8</v>
       </c>
-      <c r="AW29" s="9">
+      <c r="AW29" s="8">
         <v>24.1</v>
       </c>
-      <c r="AZ29" s="9">
+      <c r="AZ29" s="8">
         <v>23.9</v>
       </c>
-      <c r="BE29" s="9">
+      <c r="BE29" s="8">
         <v>23.3</v>
       </c>
-      <c r="BJ29" s="9">
+      <c r="BJ29" s="8">
         <v>22.5</v>
       </c>
-      <c r="BO29" s="9">
+      <c r="BO29" s="8">
         <v>22.2</v>
       </c>
-      <c r="BT29" s="9">
+      <c r="BT29" s="8">
         <v>21.8</v>
       </c>
-      <c r="BY29" s="9">
+      <c r="BY29" s="8">
         <v>21.5</v>
       </c>
-      <c r="CD29" s="9">
+      <c r="CD29" s="8">
         <v>21.7</v>
       </c>
-      <c r="DM29" s="9">
-        <v>26.7570552825928</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="DM29" s="8">
+        <v>26.757055282592798</v>
+      </c>
+    </row>
+    <row r="30" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="CN30" s="9">
-        <v>23.6081936549822</v>
-      </c>
-      <c r="DM30" s="9">
+      <c r="CN30" s="8">
+        <v>23.608193654982198</v>
+      </c>
+      <c r="DM30" s="8">
         <v>25.6869010925293</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="CI31" s="9">
+      <c r="CI31" s="8">
         <v>18.3726687468079</v>
       </c>
-      <c r="DM31" s="9">
-        <v>19.4087657928467</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="DM31" s="8">
+        <v>19.408765792846701</v>
+      </c>
+    </row>
+    <row r="32" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BX32" s="9">
-        <v>16.4629140510292</v>
-      </c>
-      <c r="DM32" s="9">
-        <v>18.3400001525879</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="BX32" s="8">
+        <v>16.462914051029198</v>
+      </c>
+      <c r="DM32" s="8">
+        <v>18.340000152587901</v>
+      </c>
+    </row>
+    <row r="33" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="CD33" s="9">
-        <v>23.4246677603613</v>
-      </c>
-      <c r="DM33" s="9">
-        <v>23.3717575073242</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="CD33" s="8">
+        <v>23.424667760361299</v>
+      </c>
+      <c r="DM33" s="8">
+        <v>23.371757507324201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N34" s="9">
-        <v>19.0</v>
-      </c>
-      <c r="AU34" s="9">
-        <v>17.65</v>
-      </c>
-      <c r="AZ34" s="9">
+      <c r="N34" s="8">
+        <v>19</v>
+      </c>
+      <c r="AU34" s="8">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="AZ34" s="8">
         <v>18.21</v>
       </c>
-      <c r="BA34" s="9">
+      <c r="BA34" s="8">
         <v>18.21</v>
       </c>
-      <c r="BB34" s="9">
+      <c r="BB34" s="8">
         <v>18.34</v>
       </c>
-      <c r="BC34" s="9">
+      <c r="BC34" s="8">
         <v>18.41</v>
       </c>
-      <c r="BD34" s="9">
+      <c r="BD34" s="8">
         <v>18.46</v>
       </c>
-      <c r="BE34" s="9">
-        <v>18.6</v>
-      </c>
-      <c r="BF34" s="9">
-        <v>18.69</v>
-      </c>
-      <c r="BG34" s="9">
+      <c r="BE34" s="8">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="BF34" s="8">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="BG34" s="8">
         <v>18.53</v>
       </c>
-      <c r="BH34" s="9">
+      <c r="BH34" s="8">
         <v>18.59</v>
       </c>
-      <c r="BI34" s="9">
+      <c r="BI34" s="8">
         <v>18.57</v>
       </c>
-      <c r="BJ34" s="9">
+      <c r="BJ34" s="8">
         <v>18.68</v>
       </c>
-      <c r="BO34" s="9">
+      <c r="BO34" s="8">
         <v>19.07</v>
       </c>
-      <c r="BT34" s="9">
+      <c r="BT34" s="8">
         <v>19.57</v>
       </c>
-      <c r="BY34" s="9">
-        <v>19.74</v>
-      </c>
-      <c r="CD34" s="9">
-        <v>20.19</v>
-      </c>
-      <c r="CI34" s="9">
+      <c r="BY34" s="8">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="CD34" s="8">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="CI34" s="8">
         <v>21.74</v>
       </c>
-      <c r="CM34" s="9">
+      <c r="CM34" s="8">
         <v>23.12</v>
       </c>
-      <c r="CO34" s="9">
+      <c r="CO34" s="8">
         <v>22.82</v>
       </c>
-      <c r="CP34" s="9">
+      <c r="CP34" s="8">
         <v>22.62</v>
       </c>
-      <c r="DM34" s="9">
-        <v>23.3116226196289</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="DM34" s="8">
+        <v>23.311622619628899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="CG35" s="9">
-        <v>22.4919742079165</v>
-      </c>
-      <c r="DM35" s="9">
+      <c r="CG35" s="8">
+        <v>22.491974207916499</v>
+      </c>
+      <c r="DM35" s="8">
         <v>23.0043640136719</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="CN36" s="9">
-        <v>19.7686407468903</v>
-      </c>
-      <c r="DM36" s="9">
+      <c r="CN36" s="8">
+        <v>19.768640746890298</v>
+      </c>
+      <c r="DM36" s="8">
         <v>23.6149997711182</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="CD37" s="9">
-        <v>20.0235380360048</v>
-      </c>
-      <c r="CR37" s="9">
-        <v>20.0235380360048</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="CD37" s="8">
+        <v>20.023538036004801</v>
+      </c>
+      <c r="CR37" s="8">
+        <v>20.023538036004801</v>
+      </c>
+    </row>
+    <row r="38" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="CD38" s="9">
-        <v>22.5726023382734</v>
-      </c>
-      <c r="CR38" s="9">
-        <v>22.5726023382734</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="CD38" s="8">
+        <v>22.572602338273398</v>
+      </c>
+      <c r="CR38" s="8">
+        <v>22.572602338273398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="CG39" s="9">
-        <v>21.7264492906534</v>
-      </c>
-      <c r="DM39" s="9">
+      <c r="CG39" s="8">
+        <v>21.726449290653399</v>
+      </c>
+      <c r="DM39" s="8">
         <v>23.3900241851807</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="CD40" s="9">
-        <v>18.723867994114</v>
-      </c>
-      <c r="CL40" s="9">
-        <v>18.723867994114</v>
-      </c>
-      <c r="DG40" s="9">
-        <v>22.0029299081391</v>
-      </c>
-      <c r="DM40" s="9">
-        <v>22.0029299081391</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="CD40" s="8">
+        <v>18.723867994113998</v>
+      </c>
+      <c r="CL40" s="8">
+        <v>18.723867994113998</v>
+      </c>
+      <c r="DG40" s="8">
+        <v>22.002929908139102</v>
+      </c>
+      <c r="DM40" s="8">
+        <v>22.002929908139102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="DM41" s="9">
+      <c r="DM41" s="8">
         <v>26.2307243347168</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="CD42" s="9">
+      <c r="CD42" s="8">
         <v>19.4784152055175</v>
       </c>
-      <c r="CS42" s="9">
-        <v>22.1652065081352</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="CS42" s="8">
+        <v>22.165206508135199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="CG43" s="9">
-        <v>24.1804719687733</v>
-      </c>
-      <c r="DM43" s="9">
+      <c r="CG43" s="8">
+        <v>24.180471968773301</v>
+      </c>
+      <c r="DM43" s="8">
         <v>25.2196941375732</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="BE44" s="9">
+      <c r="BE44" s="8">
         <v>24.38</v>
       </c>
-      <c r="BT44" s="9">
+      <c r="BT44" s="8">
         <v>21.98</v>
       </c>
-      <c r="CD44" s="9">
+      <c r="CD44" s="8">
         <v>21.72</v>
       </c>
-      <c r="CW44" s="9">
+      <c r="CW44" s="8">
         <v>21.79</v>
       </c>
-      <c r="DM44" s="9">
-        <v>27.6232471466064</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="DM44" s="8">
+        <v>27.623247146606399</v>
+      </c>
+    </row>
+    <row r="45" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K45" s="9">
-        <v>27.0</v>
-      </c>
-      <c r="BO45" s="9">
+      <c r="K45" s="8">
+        <v>27</v>
+      </c>
+      <c r="BO45" s="8">
         <v>23.09</v>
       </c>
-      <c r="CD45" s="9">
+      <c r="CD45" s="8">
         <v>22.75</v>
       </c>
-      <c r="CK45" s="9">
+      <c r="CK45" s="8">
         <v>23.75</v>
       </c>
-      <c r="CS45" s="9">
+      <c r="CS45" s="8">
         <v>26.23</v>
       </c>
-      <c r="CW45" s="9">
+      <c r="CW45" s="8">
         <v>26.94</v>
       </c>
-      <c r="DM45" s="9">
-        <v>30.8473587036133</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="DM45" s="8">
+        <v>30.847358703613299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="CD46" s="9">
-        <v>19.5793136614812</v>
-      </c>
-      <c r="DM46" s="9">
-        <v>21.4746780395508</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="CD46" s="8">
+        <v>19.579313661481201</v>
+      </c>
+      <c r="DM46" s="8">
+        <v>21.474678039550799</v>
+      </c>
+    </row>
+    <row r="47" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="CH47" s="9">
-        <v>21.2413228221406</v>
-      </c>
-      <c r="DM47" s="9">
+      <c r="CH47" s="8">
+        <v>21.241322822140599</v>
+      </c>
+      <c r="DM47" s="8">
         <v>21.5546684265137</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N48" s="9">
+      <c r="N48" s="8">
         <v>17.5</v>
       </c>
-      <c r="AX48" s="9">
+      <c r="AX48" s="8">
         <v>18.5</v>
       </c>
-      <c r="BT48" s="9">
-        <v>19.0</v>
-      </c>
-      <c r="CJ48" s="9">
-        <v>21.3865274293603</v>
-      </c>
-      <c r="DH48" s="9">
+      <c r="BT48" s="8">
+        <v>19</v>
+      </c>
+      <c r="CJ48" s="8">
+        <v>21.386527429360299</v>
+      </c>
+      <c r="DH48" s="8">
         <v>22.7055854797363</v>
       </c>
-      <c r="DM48" s="9">
-        <v>23.6300695549011</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="DM48" s="8">
+        <v>23.630069554901102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="CE49" s="9">
+      <c r="CE49" s="8">
         <v>19.042852346442</v>
       </c>
-      <c r="DM49" s="9">
-        <v>22.2862110137939</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="DM49" s="8">
+        <v>22.286211013793899</v>
+      </c>
+    </row>
+    <row r="50" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="CD50" s="9">
+      <c r="CD50" s="8">
         <v>21.6914996755856</v>
       </c>
-      <c r="CQ50" s="9">
+      <c r="CQ50" s="8">
         <v>21.6914996755856</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="DM51" s="9">
-        <v>20.5549964904785</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="DM51" s="8">
+        <v>20.554996490478501</v>
+      </c>
+    </row>
+    <row r="52" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AG52" s="9">
+      <c r="AG52" s="8">
         <v>26.8</v>
       </c>
-      <c r="DM52" s="9">
-        <v>27.5829658508301</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="DM52" s="8">
+        <v>27.582965850830099</v>
+      </c>
+    </row>
+    <row r="53" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="CR53" s="9">
-        <v>17.1</v>
-      </c>
-      <c r="DM53" s="9">
+      <c r="CR53" s="8">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="DM53" s="8">
         <v>20.5055027008057</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="CJ54" s="9">
+      <c r="CJ54" s="8">
         <v>21.7331430223465</v>
       </c>
-      <c r="DM54" s="9">
-        <v>22.8952884674072</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="DM54" s="8">
+        <v>22.895288467407202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J55" s="9">
-        <v>24.0</v>
-      </c>
-      <c r="AB55" s="9">
-        <v>25.0</v>
-      </c>
-      <c r="BO55" s="9">
+      <c r="J55" s="8">
+        <v>24</v>
+      </c>
+      <c r="AB55" s="8">
+        <v>25</v>
+      </c>
+      <c r="BO55" s="8">
         <v>24.03</v>
       </c>
-      <c r="CI55" s="9">
+      <c r="CI55" s="8">
         <v>23.5</v>
       </c>
-      <c r="CW55" s="9">
+      <c r="CW55" s="8">
         <v>25.76</v>
       </c>
-      <c r="DM55" s="9">
-        <v>30.5371894836426</v>
-      </c>
-    </row>
-    <row r="56">
+      <c r="DM55" s="8">
+        <v>30.537189483642599</v>
+      </c>
+    </row>
+    <row r="56" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K56" s="9">
+      <c r="K56" s="8">
         <v>25.3</v>
       </c>
-      <c r="BE56" s="9">
+      <c r="BE56" s="8">
         <v>24.56</v>
       </c>
-      <c r="BF56" s="9">
+      <c r="BF56" s="8">
         <v>24.23</v>
       </c>
-      <c r="BH56" s="9">
+      <c r="BH56" s="8">
         <v>23.77</v>
       </c>
-      <c r="BJ56" s="9">
+      <c r="BJ56" s="8">
         <v>23.32</v>
       </c>
-      <c r="CD56" s="9">
+      <c r="CD56" s="8">
         <v>22.61</v>
       </c>
-      <c r="CN56" s="9">
+      <c r="CN56" s="8">
         <v>22.97</v>
       </c>
-      <c r="CX56" s="9">
+      <c r="CX56" s="8">
         <v>25.52</v>
       </c>
-      <c r="DM56" s="9">
+      <c r="DM56" s="8">
         <v>30.9642658233643</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="CA57" s="9">
-        <v>24.4315684222029</v>
-      </c>
-      <c r="DM57" s="9">
-        <v>31.6989803314209</v>
-      </c>
-    </row>
-    <row r="58">
+      <c r="CA57" s="8">
+        <v>24.431568422202901</v>
+      </c>
+      <c r="DM57" s="8">
+        <v>31.698980331420898</v>
+      </c>
+    </row>
+    <row r="58" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="CK58" s="9">
-        <v>25.8307597282273</v>
-      </c>
-      <c r="DM58" s="9">
-        <v>29.8670692443848</v>
-      </c>
-    </row>
-    <row r="59">
+      <c r="CK58" s="8">
+        <v>25.830759728227299</v>
+      </c>
+      <c r="DM58" s="8">
+        <v>29.867069244384801</v>
+      </c>
+    </row>
+    <row r="59" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="BU59" s="9">
+      <c r="BU59" s="8">
         <v>17.6608609605473</v>
       </c>
-      <c r="DM59" s="9">
-        <v>22.1028518676758</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="DM59" s="8">
+        <v>22.102851867675799</v>
+      </c>
+    </row>
+    <row r="60" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="DM60" s="9">
+      <c r="DM60" s="8">
         <v>19.6466960906982</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AG61" s="9">
-        <v>19.6</v>
-      </c>
-      <c r="CM61" s="9">
-        <v>23.1702127659574</v>
-      </c>
-      <c r="DM61" s="9">
+      <c r="AG61" s="8">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="CM61" s="8">
+        <v>23.170212765957402</v>
+      </c>
+      <c r="DM61" s="8">
         <v>22.4673881530762</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N62" s="9">
+      <c r="N62" s="8">
         <v>26.8375380517504</v>
       </c>
-      <c r="BN62" s="9">
-        <v>23.925</v>
-      </c>
-      <c r="CI62" s="9">
-        <v>22.115</v>
-      </c>
-      <c r="CV62" s="9">
+      <c r="BN62" s="8">
+        <v>23.925000000000001</v>
+      </c>
+      <c r="CI62" s="8">
+        <v>22.114999999999998</v>
+      </c>
+      <c r="CV62" s="8">
         <v>24.31</v>
       </c>
-      <c r="DM62" s="9">
-        <v>30.1288509368896</v>
-      </c>
-    </row>
-    <row r="63">
+      <c r="DM62" s="8">
+        <v>30.128850936889599</v>
+      </c>
+    </row>
+    <row r="63" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="CE63" s="9">
+      <c r="CE63" s="8">
         <v>19.4070351758794</v>
       </c>
-      <c r="DM63" s="9">
+      <c r="DM63" s="8">
         <v>22.4497985839844</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AM64" s="9">
+      <c r="AM64" s="8">
         <v>22.2</v>
       </c>
-      <c r="AQ64" s="9">
-        <v>25.0</v>
-      </c>
-      <c r="AT64" s="9">
-        <v>24.0</v>
-      </c>
-      <c r="BK64" s="9">
+      <c r="AQ64" s="8">
+        <v>25</v>
+      </c>
+      <c r="AT64" s="8">
+        <v>24</v>
+      </c>
+      <c r="BK64" s="8">
         <v>25.9</v>
       </c>
-      <c r="BU64" s="9">
+      <c r="BU64" s="8">
         <v>25.5</v>
       </c>
-      <c r="CO64" s="9">
-        <v>22.4588437035114</v>
-      </c>
-      <c r="CY64" s="9">
+      <c r="CO64" s="8">
+        <v>22.458843703511398</v>
+      </c>
+      <c r="CY64" s="8">
         <v>24.6</v>
       </c>
-      <c r="DM64" s="9">
-        <v>26.9438533782959</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="DM64" s="8">
+        <v>26.943853378295898</v>
+      </c>
+    </row>
+    <row r="65" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="CA65" s="9">
-        <v>25.4470122895022</v>
-      </c>
-      <c r="DM65" s="9">
+      <c r="CA65" s="8">
+        <v>25.447012289502201</v>
+      </c>
+      <c r="DM65" s="8">
         <v>31.5742797851562</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="CN66" s="9">
-        <v>22.1736583861485</v>
-      </c>
-      <c r="DM66" s="9">
-        <v>24.3624839782715</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="CN66" s="8">
+        <v>22.173658386148499</v>
+      </c>
+      <c r="DM66" s="8">
+        <v>24.362483978271499</v>
+      </c>
+    </row>
+    <row r="67" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="CG67" s="9">
-        <v>19.7194911755388</v>
-      </c>
-      <c r="DM67" s="9">
+      <c r="CG67" s="8">
+        <v>19.719491175538799</v>
+      </c>
+      <c r="DM67" s="8">
         <v>20.4507350921631</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="DM68" s="9">
-        <v>18.7199993133545</v>
-      </c>
-    </row>
-    <row r="69">
+      <c r="DM68" s="8">
+        <v>18.719999313354499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="CD69" s="9">
-        <v>21.5139154162778</v>
-      </c>
-      <c r="DM69" s="9">
-        <v>27.7958927154541</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="CD69" s="8">
+        <v>21.513915416277801</v>
+      </c>
+      <c r="DM69" s="8">
+        <v>27.795892715454102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="CE70" s="9">
-        <v>22.4117152398692</v>
-      </c>
-      <c r="DM70" s="9">
-        <v>22.2755107879639</v>
-      </c>
-    </row>
-    <row r="71">
+      <c r="CE70" s="8">
+        <v>22.411715239869199</v>
+      </c>
+      <c r="DM70" s="8">
+        <v>22.275510787963899</v>
+      </c>
+    </row>
+    <row r="71" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="CH71" s="9">
-        <v>19.9972944621251</v>
-      </c>
-      <c r="DM71" s="9">
-        <v>20.3504180908203</v>
-      </c>
-    </row>
-    <row r="72">
+      <c r="CH71" s="8">
+        <v>19.997294462125101</v>
+      </c>
+      <c r="DM71" s="8">
+        <v>20.350418090820298</v>
+      </c>
+    </row>
+    <row r="72" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AU72" s="9">
+      <c r="AU72" s="8">
         <v>20.7</v>
       </c>
-      <c r="BT72" s="9">
+      <c r="BT72" s="8">
         <v>21.9</v>
       </c>
-      <c r="BY72" s="9">
+      <c r="BY72" s="8">
         <v>22.5</v>
       </c>
-      <c r="CE72" s="9">
-        <v>23.7959853305037</v>
-      </c>
-      <c r="DM72" s="9">
-        <v>28.6178035736084</v>
-      </c>
-    </row>
-    <row r="73">
+      <c r="CE72" s="8">
+        <v>23.795985330503701</v>
+      </c>
+      <c r="DM72" s="8">
+        <v>28.617803573608398</v>
+      </c>
+    </row>
+    <row r="73" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="BG73" s="9">
+      <c r="BG73" s="8">
         <v>23.32</v>
       </c>
-      <c r="BT73" s="9">
+      <c r="BT73" s="8">
         <v>21.99</v>
       </c>
-      <c r="CI73" s="9">
+      <c r="CI73" s="8">
         <v>21.11</v>
       </c>
-      <c r="CW73" s="9">
+      <c r="CW73" s="8">
         <v>21.82</v>
       </c>
-      <c r="DM73" s="9">
-        <v>27.8507633209228</v>
-      </c>
-    </row>
-    <row r="74">
+      <c r="DM73" s="8">
+        <v>27.850763320922798</v>
+      </c>
+    </row>
+    <row r="74" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AE74" s="9">
-        <v>28.0</v>
-      </c>
-      <c r="CH74" s="9">
-        <v>21.9165727170237</v>
-      </c>
-      <c r="DM74" s="9">
-        <v>27.5123825073242</v>
-      </c>
-    </row>
-    <row r="75">
+      <c r="AE74" s="8">
+        <v>28</v>
+      </c>
+      <c r="CH74" s="8">
+        <v>21.916572717023701</v>
+      </c>
+      <c r="DM74" s="8">
+        <v>27.512382507324201</v>
+      </c>
+    </row>
+    <row r="75" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P75" s="9">
+      <c r="P75" s="8">
         <v>13.04</v>
       </c>
-      <c r="AK75" s="9">
+      <c r="AK75" s="8">
         <v>13.04</v>
       </c>
-      <c r="AP75" s="9">
+      <c r="AP75" s="8">
         <v>13.52</v>
       </c>
-      <c r="AS75" s="9">
+      <c r="AS75" s="8">
         <v>12.5</v>
       </c>
-      <c r="AW75" s="9">
+      <c r="AW75" s="8">
         <v>14.39</v>
       </c>
-      <c r="BE75" s="9">
+      <c r="BE75" s="8">
         <v>15.38</v>
       </c>
-      <c r="BO75" s="9">
+      <c r="BO75" s="8">
         <v>15.43</v>
       </c>
-      <c r="BY75" s="9">
-        <v>17.1</v>
-      </c>
-      <c r="CI75" s="9">
+      <c r="BY75" s="8">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="CI75" s="8">
         <v>18.39</v>
       </c>
-      <c r="DM75" s="9">
-        <v>19.9395790100098</v>
-      </c>
-    </row>
-    <row r="76">
+      <c r="DM75" s="8">
+        <v>19.939579010009801</v>
+      </c>
+    </row>
+    <row r="76" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="BT76" s="9">
-        <v>18.6</v>
-      </c>
-      <c r="CE76" s="9">
-        <v>19.2826819987516</v>
-      </c>
-      <c r="CX76" s="9">
+      <c r="BT76" s="8">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="CE76" s="8">
+        <v>19.282681998751599</v>
+      </c>
+      <c r="CX76" s="8">
         <v>21.6</v>
       </c>
-      <c r="DM76" s="9">
+      <c r="DM76" s="8">
         <v>22.1122436523438</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="BZ77" s="9">
-        <v>18.4</v>
-      </c>
-      <c r="CJ77" s="9">
+      <c r="BZ77" s="8">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="CJ77" s="8">
         <v>19.7</v>
       </c>
-      <c r="CT77" s="9">
-        <v>19.9</v>
-      </c>
-      <c r="CY77" s="9">
-        <v>21.0</v>
-      </c>
-      <c r="DD77" s="9">
-        <v>22.0</v>
-      </c>
-      <c r="DM77" s="9">
+      <c r="CT77" s="8">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="CY77" s="8">
+        <v>21</v>
+      </c>
+      <c r="DD77" s="8">
+        <v>22</v>
+      </c>
+      <c r="DM77" s="8">
         <v>22.1446647644043</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="CK78" s="9">
+      <c r="CK78" s="8">
         <v>20.8467423488188</v>
       </c>
-      <c r="DM78" s="9">
-        <v>24.8413105010986</v>
-      </c>
-    </row>
-    <row r="79">
+      <c r="DM78" s="8">
+        <v>24.841310501098601</v>
+      </c>
+    </row>
+    <row r="79" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="CE79" s="9">
-        <v>23.5328207160465</v>
-      </c>
-      <c r="DM79" s="9">
-        <v>30.7126808166504</v>
-      </c>
-    </row>
-    <row r="80">
+      <c r="CE79" s="8">
+        <v>23.532820716046501</v>
+      </c>
+      <c r="DM79" s="8">
+        <v>30.712680816650401</v>
+      </c>
+    </row>
+    <row r="80" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="CF80" s="9">
+      <c r="CF80" s="8">
         <v>22.7955374032849</v>
       </c>
-      <c r="DM80" s="9">
-        <v>25.8736038208008</v>
-      </c>
-    </row>
-    <row r="81">
+      <c r="DM80" s="8">
+        <v>25.873603820800799</v>
+      </c>
+    </row>
+    <row r="81" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="BL81" s="9">
+      <c r="BL81" s="8">
         <v>25.08</v>
       </c>
-      <c r="CD81" s="9">
+      <c r="CD81" s="8">
         <v>23.94</v>
       </c>
-      <c r="DM81" s="9">
-        <v>29.1675796508789</v>
-      </c>
-    </row>
-    <row r="82">
+      <c r="DM81" s="8">
+        <v>29.167579650878899</v>
+      </c>
+    </row>
+    <row r="82" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="CD82" s="9">
+      <c r="CD82" s="8">
         <v>21.0555714574019</v>
       </c>
-      <c r="DM82" s="9">
-        <v>33.2029190063477</v>
-      </c>
-    </row>
-    <row r="83">
+      <c r="DM82" s="8">
+        <v>33.202919006347699</v>
+      </c>
+    </row>
+    <row r="83" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D83" s="9">
-        <v>17.925</v>
-      </c>
-      <c r="E83" s="9">
+      <c r="D83" s="8">
+        <v>17.925000000000001</v>
+      </c>
+      <c r="E83" s="8">
         <v>16.95</v>
       </c>
-      <c r="G83" s="9">
-        <v>18.185</v>
-      </c>
-      <c r="H83" s="9">
+      <c r="G83" s="8">
+        <v>18.184999999999999</v>
+      </c>
+      <c r="H83" s="8">
         <v>18.25</v>
       </c>
-      <c r="L83" s="9">
+      <c r="L83" s="8">
         <v>19.03</v>
       </c>
-      <c r="N83" s="9">
+      <c r="N83" s="8">
         <v>21.11</v>
       </c>
-      <c r="O83" s="9">
+      <c r="O83" s="8">
         <v>20.2</v>
       </c>
-      <c r="V83" s="9">
+      <c r="V83" s="8">
         <v>20.785</v>
       </c>
-      <c r="AA83" s="9">
+      <c r="AA83" s="8">
         <v>20.6</v>
       </c>
-      <c r="AQ83" s="9">
+      <c r="AQ83" s="8">
         <v>21.1</v>
       </c>
-      <c r="AU83" s="9">
+      <c r="AU83" s="8">
         <v>21.8</v>
       </c>
-      <c r="AZ83" s="9">
+      <c r="AZ83" s="8">
         <v>23.3</v>
       </c>
-      <c r="BJ83" s="9">
+      <c r="BJ83" s="8">
         <v>23.6</v>
       </c>
-      <c r="BO83" s="9">
+      <c r="BO83" s="8">
         <v>24.7</v>
       </c>
-      <c r="BT83" s="9">
-        <v>25.0</v>
-      </c>
-      <c r="BY83" s="9">
+      <c r="BT83" s="8">
+        <v>25</v>
+      </c>
+      <c r="BY83" s="8">
         <v>24.8</v>
       </c>
-      <c r="CD83" s="9">
+      <c r="CD83" s="8">
         <v>24.6539282917614</v>
       </c>
-      <c r="CI83" s="9">
+      <c r="CI83" s="8">
         <v>24.4</v>
       </c>
-      <c r="CX83" s="9">
+      <c r="CX83" s="8">
         <v>26.7</v>
       </c>
-      <c r="DM83" s="9">
-        <v>28.5721893310547</v>
-      </c>
-    </row>
-    <row r="84">
+      <c r="DM83" s="8">
+        <v>28.572189331054702</v>
+      </c>
+    </row>
+    <row r="84" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="CI84" s="9">
+      <c r="CI84" s="8">
         <v>21.5</v>
       </c>
-      <c r="DM84" s="9">
-        <v>25.864782333374</v>
-      </c>
-    </row>
-    <row r="85">
+      <c r="DM84" s="8">
+        <v>25.864782333373999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AG85" s="9">
+      <c r="AG85" s="8">
         <v>18.2</v>
       </c>
-      <c r="DM85" s="9">
-        <v>23.3592510223389</v>
-      </c>
-    </row>
-    <row r="86">
+      <c r="DM85" s="8">
+        <v>23.359251022338899</v>
+      </c>
+    </row>
+    <row r="86" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="CC86" s="9">
+      <c r="CC86" s="8">
         <v>19.2038761840587</v>
       </c>
-      <c r="DM86" s="9">
-        <v>21.4477787017822</v>
-      </c>
-    </row>
-    <row r="87">
+      <c r="DM86" s="8">
+        <v>21.447778701782202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AS87" s="9">
+      <c r="AS87" s="8">
         <v>16.5</v>
       </c>
-      <c r="AU87" s="9">
+      <c r="AU87" s="8">
         <v>16.7</v>
       </c>
-      <c r="BT87" s="9">
+      <c r="BT87" s="8">
         <v>21.7</v>
       </c>
-      <c r="CD87" s="9">
-        <v>23.2782937632907</v>
-      </c>
-      <c r="DM87" s="9">
-        <v>27.068962097168</v>
-      </c>
-    </row>
-    <row r="88">
+      <c r="CD87" s="8">
+        <v>23.278293763290701</v>
+      </c>
+      <c r="DM87" s="8">
+        <v>27.068962097168001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="CD88" s="9">
+      <c r="CD88" s="8">
         <v>19.5532125933921</v>
       </c>
-      <c r="DM88" s="9">
-        <v>25.0653419494629</v>
-      </c>
-    </row>
-    <row r="89">
+      <c r="DM88" s="8">
+        <v>25.065341949462901</v>
+      </c>
+    </row>
+    <row r="89" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="DM89" s="9">
-        <v>21.8441143035889</v>
-      </c>
-    </row>
-    <row r="90">
+      <c r="DM89" s="8">
+        <v>21.844114303588899</v>
+      </c>
+    </row>
+    <row r="90" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AG90" s="9">
+      <c r="AG90" s="8">
         <v>25.7</v>
       </c>
-      <c r="DM90" s="9">
+      <c r="DM90" s="8">
         <v>28.1573181152344</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="CD91" s="9">
+      <c r="CD91" s="8">
         <v>23.1754574811625</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="CJ92" s="9">
-        <v>20.0701079087055</v>
-      </c>
-      <c r="DM92" s="9">
-        <v>21.3099536895752</v>
-      </c>
-    </row>
-    <row r="93">
+      <c r="CJ92" s="8">
+        <v>20.070107908705499</v>
+      </c>
+      <c r="DM92" s="8">
+        <v>21.309953689575199</v>
+      </c>
+    </row>
+    <row r="93" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="CD93" s="9">
-        <v>18.7300664465072</v>
-      </c>
-      <c r="DM93" s="9">
-        <v>20.1608028411865</v>
-      </c>
-    </row>
-    <row r="94">
+      <c r="CD93" s="8">
+        <v>18.730066446507202</v>
+      </c>
+      <c r="DM93" s="8">
+        <v>20.160802841186499</v>
+      </c>
+    </row>
+    <row r="94" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="CG94" s="9">
+      <c r="CG94" s="8">
         <v>18.7309865503669</v>
       </c>
-      <c r="DM94" s="9">
+      <c r="DM94" s="8">
         <v>29.1911010742188</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="AG95" s="9">
+      <c r="AG95" s="8">
         <v>24.7</v>
       </c>
-      <c r="DM95" s="9">
-        <v>26.1340484619141</v>
-      </c>
-    </row>
-    <row r="96">
+      <c r="DM95" s="8">
+        <v>26.134048461914102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="CD96" s="9">
-        <v>21.4041551456486</v>
-      </c>
-      <c r="DM96" s="9">
-        <v>27.8359394073486</v>
-      </c>
-    </row>
-    <row r="97">
+      <c r="CD96" s="8">
+        <v>21.404155145648598</v>
+      </c>
+      <c r="DM96" s="8">
+        <v>27.835939407348601</v>
+      </c>
+    </row>
+    <row r="97" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="BT97" s="9">
+      <c r="BT97" s="8">
         <v>24.1</v>
       </c>
-      <c r="CD97" s="9">
-        <v>25.6239686435262</v>
-      </c>
-      <c r="DM97" s="9">
-        <v>26.3622303009033</v>
-      </c>
-    </row>
-    <row r="98">
+      <c r="CD97" s="8">
+        <v>25.623968643526201</v>
+      </c>
+      <c r="DM97" s="8">
+        <v>26.362230300903299</v>
+      </c>
+    </row>
+    <row r="98" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="DM98" s="9">
+      <c r="DM98" s="8">
         <v>22.8783988952637</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="CI99" s="9">
+      <c r="CI99" s="8">
         <v>20.2841273289683</v>
       </c>
-      <c r="DM99" s="9">
-        <v>19.8491153717041</v>
-      </c>
-    </row>
-    <row r="100">
+      <c r="DM99" s="8">
+        <v>19.849115371704102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="CK100" s="9">
+      <c r="CK100" s="8">
         <v>17.8</v>
       </c>
-      <c r="DM100" s="9">
-        <v>18.9449996948242</v>
-      </c>
-    </row>
-    <row r="101">
+      <c r="DM100" s="8">
+        <v>18.944999694824201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AZ101" s="9">
+      <c r="AZ101" s="8">
         <v>18.3</v>
       </c>
-      <c r="BO101" s="9">
-        <v>19.4</v>
-      </c>
-      <c r="CD101" s="9">
-        <v>22.0621711836856</v>
-      </c>
-      <c r="DM101" s="9">
-        <v>25.1178607940674</v>
-      </c>
-    </row>
-    <row r="102">
+      <c r="BO101" s="8">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="CD101" s="8">
+        <v>22.062171183685599</v>
+      </c>
+      <c r="DM101" s="8">
+        <v>25.117860794067401</v>
+      </c>
+    </row>
+    <row r="102" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="CK102" s="9">
+      <c r="CK102" s="8">
         <v>17.549045491346</v>
       </c>
-      <c r="DM102" s="9">
-        <v>21.8209266662598</v>
-      </c>
-    </row>
-    <row r="103">
+      <c r="DM102" s="8">
+        <v>21.820926666259801</v>
+      </c>
+    </row>
+    <row r="103" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="BJ103" s="9">
-        <v>18.0</v>
-      </c>
-      <c r="CJ103" s="9">
+      <c r="BJ103" s="8">
+        <v>18</v>
+      </c>
+      <c r="CJ103" s="8">
         <v>18.0723942828694</v>
       </c>
-      <c r="DM103" s="9">
+      <c r="DM103" s="8">
         <v>18.4899997711182</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="CA104" s="9">
-        <v>24.0081643649996</v>
-      </c>
-      <c r="CS104" s="9">
-        <v>22.1652065081352</v>
-      </c>
-    </row>
-    <row r="105">
+      <c r="CA104" s="8">
+        <v>24.008164364999601</v>
+      </c>
+      <c r="CS104" s="8">
+        <v>22.165206508135199</v>
+      </c>
+    </row>
+    <row r="105" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="CA105" s="9">
-        <v>26.1615507630494</v>
-      </c>
-      <c r="DM105" s="9">
-        <v>33.2695350646973</v>
-      </c>
-    </row>
-    <row r="106">
+      <c r="CA105" s="8">
+        <v>26.161550763049402</v>
+      </c>
+      <c r="DM105" s="8">
+        <v>33.269535064697301</v>
+      </c>
+    </row>
+    <row r="106" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="CK106" s="9">
-        <v>19.4651056874806</v>
-      </c>
-      <c r="DM106" s="9">
-        <v>21.7755107879639</v>
-      </c>
-    </row>
-    <row r="107">
+      <c r="CK106" s="8">
+        <v>19.465105687480602</v>
+      </c>
+      <c r="DM106" s="8">
+        <v>21.775510787963899</v>
+      </c>
+    </row>
+    <row r="107" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="CF107" s="9">
-        <v>22.4515257945355</v>
-      </c>
-      <c r="DM107" s="9">
+      <c r="CF107" s="8">
+        <v>22.451525794535499</v>
+      </c>
+      <c r="DM107" s="8">
         <v>22.5515747070312</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="CD108" s="9">
+      <c r="CD108" s="8">
         <v>21.1896731571114</v>
       </c>
-      <c r="DM108" s="9">
-        <v>22.7302284240723</v>
-      </c>
-    </row>
-    <row r="109">
+      <c r="DM108" s="8">
+        <v>22.730228424072301</v>
+      </c>
+    </row>
+    <row r="109" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AG109" s="9">
+      <c r="AG109" s="8">
         <v>20.2</v>
       </c>
-      <c r="DM109" s="9">
-        <v>20.8733386993408</v>
-      </c>
-    </row>
-    <row r="110">
+      <c r="DM109" s="8">
+        <v>20.873338699340799</v>
+      </c>
+    </row>
+    <row r="110" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="DM110" s="9">
+      <c r="DM110" s="8">
         <v>23.6585369110107</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="DM111" s="9">
-        <v>25.9379901885986</v>
-      </c>
-    </row>
-    <row r="112">
+      <c r="DM111" s="8">
+        <v>25.937990188598601</v>
+      </c>
+    </row>
+    <row r="112" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="BT112" s="9">
-        <v>18.0</v>
-      </c>
-      <c r="CE112" s="9">
-        <v>19.6</v>
-      </c>
-      <c r="CM112" s="9">
+      <c r="BT112" s="8">
+        <v>18</v>
+      </c>
+      <c r="CE112" s="8">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="CM112" s="8">
         <v>21.6</v>
       </c>
-      <c r="CP112" s="9">
+      <c r="CP112" s="8">
         <v>22.2</v>
       </c>
-      <c r="CU112" s="9">
+      <c r="CU112" s="8">
         <v>23.5</v>
       </c>
-      <c r="DB112" s="9">
-        <v>25.0</v>
-      </c>
-      <c r="DK112" s="9">
+      <c r="DB112" s="8">
+        <v>25</v>
+      </c>
+      <c r="DK112" s="8">
         <v>26.9</v>
       </c>
-      <c r="DM112" s="9">
-        <v>26.4412994384766</v>
-      </c>
-    </row>
-    <row r="113">
+      <c r="DM112" s="8">
+        <v>26.441299438476602</v>
+      </c>
+    </row>
+    <row r="113" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="CD113" s="9">
-        <v>19.8803952158086</v>
-      </c>
-      <c r="DM113" s="9">
-        <v>18.7386016845703</v>
-      </c>
-    </row>
-    <row r="114">
+      <c r="CD113" s="8">
+        <v>19.880395215808601</v>
+      </c>
+      <c r="DM113" s="8">
+        <v>18.738601684570298</v>
+      </c>
+    </row>
+    <row r="114" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="CG114" s="9">
-        <v>21.2579617834395</v>
-      </c>
-      <c r="DM114" s="9">
-        <v>24.544469833374</v>
-      </c>
-    </row>
-    <row r="115">
+      <c r="CG114" s="8">
+        <v>21.257961783439502</v>
+      </c>
+      <c r="DM114" s="8">
+        <v>24.544469833373999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="BT115" s="9">
-        <v>21.7501387209283</v>
-      </c>
-      <c r="DM115" s="9">
-        <v>27.5258922576904</v>
-      </c>
-    </row>
-    <row r="116">
+      <c r="BT115" s="8">
+        <v>21.750138720928302</v>
+      </c>
+      <c r="DM115" s="8">
+        <v>27.525892257690401</v>
+      </c>
+    </row>
+    <row r="116" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="BF116" s="9">
+      <c r="BF116" s="8">
         <v>15.9</v>
       </c>
-      <c r="BT116" s="9">
+      <c r="BT116" s="8">
         <v>15.8</v>
       </c>
-      <c r="CE116" s="9">
-        <v>17.4570456656349</v>
-      </c>
-      <c r="DM116" s="9">
-        <v>18.975658416748</v>
-      </c>
-    </row>
-    <row r="117">
+      <c r="CE116" s="8">
+        <v>17.457045665634901</v>
+      </c>
+      <c r="DM116" s="8">
+        <v>18.975658416748001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K117" s="9">
+      <c r="K117" s="8">
         <v>26.5</v>
       </c>
-      <c r="P117" s="9">
-        <v>26.461</v>
-      </c>
-      <c r="Q117" s="9">
-        <v>26.566</v>
-      </c>
-      <c r="R117" s="9">
-        <v>27.1155</v>
-      </c>
-      <c r="T117" s="9">
-        <v>26.787</v>
-      </c>
-      <c r="U117" s="9">
-        <v>27.649</v>
-      </c>
-      <c r="W117" s="9">
-        <v>27.4735</v>
-      </c>
-      <c r="Z117" s="9">
-        <v>26.6545</v>
-      </c>
-      <c r="AC117" s="9">
-        <v>26.022</v>
-      </c>
-      <c r="AF117" s="9">
+      <c r="P117" s="8">
+        <v>26.460999999999999</v>
+      </c>
+      <c r="Q117" s="8">
+        <v>26.565999999999999</v>
+      </c>
+      <c r="R117" s="8">
+        <v>27.115500000000001</v>
+      </c>
+      <c r="T117" s="8">
+        <v>26.786999999999999</v>
+      </c>
+      <c r="U117" s="8">
+        <v>27.649000000000001</v>
+      </c>
+      <c r="W117" s="8">
+        <v>27.473500000000001</v>
+      </c>
+      <c r="Z117" s="8">
+        <v>26.654499999999999</v>
+      </c>
+      <c r="AC117" s="8">
+        <v>26.021999999999998</v>
+      </c>
+      <c r="AF117" s="8">
         <v>25.6495</v>
       </c>
-      <c r="AL117" s="9">
-        <v>25.758</v>
-      </c>
-      <c r="BH117" s="9">
+      <c r="AL117" s="8">
+        <v>25.757999999999999</v>
+      </c>
+      <c r="BH117" s="8">
         <v>26.14</v>
       </c>
-      <c r="BJ117" s="9">
+      <c r="BJ117" s="8">
         <v>25.9</v>
       </c>
-      <c r="CD117" s="9">
+      <c r="CD117" s="8">
         <v>24.2</v>
       </c>
-      <c r="CN117" s="9">
+      <c r="CN117" s="8">
         <v>25.05</v>
       </c>
-      <c r="CT117" s="9">
+      <c r="CT117" s="8">
         <v>26.27</v>
       </c>
-      <c r="DM117" s="9">
-        <v>30.5145397186279</v>
-      </c>
-    </row>
-    <row r="118">
+      <c r="DM117" s="8">
+        <v>30.514539718627901</v>
+      </c>
+    </row>
+    <row r="118" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="CE118" s="9">
-        <v>24.8561990847025</v>
-      </c>
-      <c r="DM118" s="9">
+      <c r="CE118" s="8">
+        <v>24.856199084702499</v>
+      </c>
+      <c r="DM118" s="8">
         <v>30.2259426116943</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="CC119" s="9">
+      <c r="CC119" s="8">
         <v>21.6256828025783</v>
       </c>
-      <c r="DM119" s="9">
-        <v>30.3737201690674</v>
-      </c>
-    </row>
-    <row r="120">
+      <c r="DM119" s="8">
+        <v>30.373720169067401</v>
+      </c>
+    </row>
+    <row r="120" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="AP120" s="9">
+      <c r="AP120" s="8">
         <v>24.7</v>
       </c>
-      <c r="AQ120" s="9">
+      <c r="AQ120" s="8">
         <v>24.5</v>
       </c>
-      <c r="AS120" s="9">
+      <c r="AS120" s="8">
         <v>24.4</v>
       </c>
-      <c r="AU120" s="9">
+      <c r="AU120" s="8">
         <v>24.6</v>
       </c>
-      <c r="AW120" s="9">
+      <c r="AW120" s="8">
         <v>24.7</v>
       </c>
-      <c r="AZ120" s="9">
+      <c r="AZ120" s="8">
         <v>24.4</v>
       </c>
-      <c r="BE120" s="9">
+      <c r="BE120" s="8">
         <v>23.8</v>
       </c>
-      <c r="BJ120" s="9">
+      <c r="BJ120" s="8">
         <v>23.3</v>
       </c>
-      <c r="BO120" s="9">
+      <c r="BO120" s="8">
         <v>22.3</v>
       </c>
-      <c r="BT120" s="9">
+      <c r="BT120" s="8">
         <v>21.8</v>
       </c>
-      <c r="BY120" s="9">
+      <c r="BY120" s="8">
         <v>21.5</v>
       </c>
-      <c r="CD120" s="9">
+      <c r="CD120" s="8">
         <v>21.4</v>
       </c>
-      <c r="DM120" s="9">
+      <c r="DM120" s="8">
         <v>30.0053806304932</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="CE121" s="9">
-        <v>20.2197479051198</v>
-      </c>
-      <c r="DM121" s="9">
-        <v>20.448917388916</v>
-      </c>
-    </row>
-    <row r="122">
+      <c r="CE121" s="8">
+        <v>20.219747905119799</v>
+      </c>
+      <c r="DM121" s="8">
+        <v>20.448917388916001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="BS122" s="9">
+      <c r="BS122" s="8">
         <v>15.7858504674993</v>
       </c>
-      <c r="DM122" s="9">
+      <c r="DM122" s="8">
         <v>17.6001987457275</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="DM123" s="9">
+      <c r="DM123" s="8">
         <v>20.9081726074219</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="J124" s="9">
-        <v>27.0</v>
-      </c>
-      <c r="S124" s="9">
-        <v>28.0</v>
-      </c>
-      <c r="BF124" s="9">
+      <c r="J124" s="8">
+        <v>27</v>
+      </c>
+      <c r="S124" s="8">
+        <v>28</v>
+      </c>
+      <c r="BF124" s="8">
         <v>26.59</v>
       </c>
-      <c r="BT124" s="9">
+      <c r="BT124" s="8">
         <v>23.67</v>
       </c>
-      <c r="CD124" s="9">
+      <c r="CD124" s="8">
         <v>22.77</v>
       </c>
-      <c r="CN124" s="9">
+      <c r="CN124" s="8">
         <v>23.52</v>
       </c>
-      <c r="CX124" s="9">
+      <c r="CX124" s="8">
         <v>26.25</v>
       </c>
-      <c r="DM124" s="9">
-        <v>31.6225337982178</v>
-      </c>
-    </row>
-    <row r="125">
+      <c r="DM124" s="8">
+        <v>31.622533798217798</v>
+      </c>
+    </row>
+    <row r="125" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="DM125" s="9">
-        <v>21.671703338623</v>
-      </c>
-    </row>
-    <row r="126">
+      <c r="DM125" s="8">
+        <v>21.671703338623001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P126" s="9">
+      <c r="P126" s="8">
         <v>16.5</v>
       </c>
-      <c r="AU126" s="9">
-        <v>17.0</v>
-      </c>
-      <c r="BT126" s="9">
-        <v>18.4</v>
-      </c>
-      <c r="CF126" s="9">
-        <v>19.7055837563452</v>
-      </c>
-      <c r="CN126" s="9">
+      <c r="AU126" s="8">
+        <v>17</v>
+      </c>
+      <c r="BT126" s="8">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="CF126" s="8">
+        <v>19.705583756345199</v>
+      </c>
+      <c r="CN126" s="8">
         <v>20.3</v>
       </c>
-      <c r="DM126" s="9">
-        <v>22.1284122467041</v>
-      </c>
-    </row>
-    <row r="127">
+      <c r="DM126" s="8">
+        <v>22.128412246704102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="CD127" s="9">
-        <v>20.4337646083952</v>
-      </c>
-      <c r="DM127" s="9">
-        <v>21.9186382293701</v>
-      </c>
-    </row>
-    <row r="128">
+      <c r="CD127" s="8">
+        <v>20.433764608395201</v>
+      </c>
+      <c r="DM127" s="8">
+        <v>21.918638229370099</v>
+      </c>
+    </row>
+    <row r="128" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="CD128" s="9">
+      <c r="CD128" s="8">
         <v>20.6175837208039</v>
       </c>
-      <c r="CN128" s="9">
+      <c r="CN128" s="8">
         <v>20.6175837208039</v>
       </c>
-      <c r="DD128" s="9">
+      <c r="DD128" s="8">
         <v>20.8016032064128</v>
       </c>
-      <c r="DM128" s="9">
+      <c r="DM128" s="8">
         <v>20.8016032064128</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="CF129" s="9">
-        <v>21.6693662270501</v>
-      </c>
-      <c r="DM129" s="9">
-        <v>22.695650100708</v>
-      </c>
-    </row>
-    <row r="130">
+      <c r="CF129" s="8">
+        <v>21.669366227050102</v>
+      </c>
+      <c r="DM129" s="8">
+        <v>22.695650100708001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="CF130" s="9">
-        <v>21.8069168593411</v>
-      </c>
-      <c r="DM130" s="9">
-        <v>23.5653114318848</v>
-      </c>
-    </row>
-    <row r="131">
+      <c r="CF130" s="8">
+        <v>21.806916859341101</v>
+      </c>
+      <c r="DM130" s="8">
+        <v>23.565311431884801</v>
+      </c>
+    </row>
+    <row r="131" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="AJ131" s="9">
+      <c r="AJ131" s="8">
         <v>20.9</v>
       </c>
-      <c r="AY131" s="9">
+      <c r="AY131" s="8">
         <v>21.9</v>
       </c>
-      <c r="BH131" s="9">
+      <c r="BH131" s="8">
         <v>22.1</v>
       </c>
-      <c r="BT131" s="9">
+      <c r="BT131" s="8">
         <v>22.3</v>
       </c>
-      <c r="CD131" s="9">
-        <v>22.8248974722227</v>
-      </c>
-      <c r="CI131" s="9">
+      <c r="CD131" s="8">
+        <v>22.824897472222698</v>
+      </c>
+      <c r="CI131" s="8">
         <v>23.2</v>
       </c>
-      <c r="CN131" s="9">
+      <c r="CN131" s="8">
         <v>22.4</v>
       </c>
-      <c r="DM131" s="9">
+      <c r="DM131" s="8">
         <v>23.1832485198975</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="BJ132" s="9">
+      <c r="BJ132" s="8">
         <v>24.23</v>
       </c>
-      <c r="BY132" s="9">
+      <c r="BY132" s="8">
         <v>23.43</v>
       </c>
-      <c r="CD132" s="9">
+      <c r="CD132" s="8">
         <v>22.89</v>
       </c>
-      <c r="CW132" s="9">
+      <c r="CW132" s="8">
         <v>22.7</v>
       </c>
-      <c r="DM132" s="9">
+      <c r="DM132" s="8">
         <v>25.2997341156006</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="CD133" s="9">
-        <v>23.2478999209932</v>
-      </c>
-      <c r="CY133" s="9">
-        <v>23.930186610987</v>
-      </c>
-      <c r="DM133" s="9">
-        <v>23.930186610987</v>
-      </c>
-    </row>
-    <row r="134">
+      <c r="CD133" s="8">
+        <v>23.247899920993198</v>
+      </c>
+      <c r="CY133" s="8">
+        <v>23.930186610987001</v>
+      </c>
+      <c r="DM133" s="8">
+        <v>23.930186610987001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="CD134" s="9">
-        <v>22.1367587392182</v>
-      </c>
-      <c r="DD134" s="9">
-        <v>22.5851041881576</v>
-      </c>
-      <c r="DM134" s="9">
-        <v>22.5851041881576</v>
-      </c>
-    </row>
-    <row r="135">
+      <c r="CD134" s="8">
+        <v>22.136758739218202</v>
+      </c>
+      <c r="DD134" s="8">
+        <v>22.585104188157601</v>
+      </c>
+      <c r="DM134" s="8">
+        <v>22.585104188157601</v>
+      </c>
+    </row>
+    <row r="135" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="CP135" s="9">
-        <v>21.4388120839734</v>
-      </c>
-      <c r="DM135" s="9">
-        <v>25.7856025695801</v>
-      </c>
-    </row>
-    <row r="136">
+      <c r="CP135" s="8">
+        <v>21.438812083973399</v>
+      </c>
+      <c r="DM135" s="8">
+        <v>25.785602569580099</v>
+      </c>
+    </row>
+    <row r="136" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="CH136" s="9">
-        <v>22.4658774782878</v>
-      </c>
-      <c r="DM136" s="9">
-        <v>30.5081558227539</v>
-      </c>
-    </row>
-    <row r="137">
+      <c r="CH136" s="8">
+        <v>22.465877478287801</v>
+      </c>
+      <c r="DM136" s="8">
+        <v>30.508155822753899</v>
+      </c>
+    </row>
+    <row r="137" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="BQ137" s="9">
+      <c r="BQ137" s="8">
         <v>22.56</v>
       </c>
-      <c r="CD137" s="9">
+      <c r="CD137" s="8">
         <v>21.81</v>
       </c>
-      <c r="CJ137" s="9">
+      <c r="CJ137" s="8">
         <v>22.3</v>
       </c>
-      <c r="CR137" s="9">
+      <c r="CR137" s="8">
         <v>22.25</v>
       </c>
-      <c r="DM137" s="9">
+      <c r="DM137" s="8">
         <v>25.30126953125</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E138" s="9">
+      <c r="E138" s="8">
         <v>17.5</v>
       </c>
-      <c r="AG138" s="9">
-        <v>20.4</v>
-      </c>
-      <c r="DM138" s="9">
+      <c r="AG138" s="8">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="DM138" s="8">
         <v>23.5897407531738</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="CD139" s="9">
-        <v>20.1046601457148</v>
-      </c>
-      <c r="DM139" s="9">
-        <v>22.5783634185791</v>
-      </c>
-    </row>
-    <row r="140">
+      <c r="CD139" s="8">
+        <v>20.104660145714799</v>
+      </c>
+      <c r="DM139" s="8">
+        <v>22.578363418579102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="CD140" s="9">
-        <v>28.679749183773</v>
-      </c>
-      <c r="CY140" s="9">
-        <v>33.6553897558188</v>
-      </c>
-      <c r="DM140" s="9">
+      <c r="CD140" s="8">
+        <v>28.679749183773001</v>
+      </c>
+      <c r="CY140" s="8">
+        <v>33.655389755818803</v>
+      </c>
+      <c r="DM140" s="8">
         <v>32.26</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="CD141" s="9">
-        <v>28.3626239392686</v>
-      </c>
-      <c r="CY141" s="9">
-        <v>30.9276502721991</v>
-      </c>
-      <c r="DM141" s="9">
-        <v>30.9276502721991</v>
-      </c>
-    </row>
-    <row r="142">
+      <c r="CD141" s="8">
+        <v>28.362623939268602</v>
+      </c>
+      <c r="CY141" s="8">
+        <v>30.927650272199099</v>
+      </c>
+      <c r="DM141" s="8">
+        <v>30.927650272199099</v>
+      </c>
+    </row>
+    <row r="142" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="CE142" s="9">
-        <v>21.986445114861</v>
-      </c>
-      <c r="DM142" s="9">
-        <v>23.9495315551758</v>
-      </c>
-    </row>
-    <row r="143">
+      <c r="CE142" s="8">
+        <v>21.986445114860999</v>
+      </c>
+      <c r="DM142" s="8">
+        <v>23.949531555175799</v>
+      </c>
+    </row>
+    <row r="143" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="CO143" s="9">
+      <c r="CO143" s="8">
         <v>15.5571124983044</v>
       </c>
-      <c r="DM143" s="9">
-        <v>17.7586193084717</v>
-      </c>
-    </row>
-    <row r="144">
+      <c r="DM143" s="8">
+        <v>17.758619308471701</v>
+      </c>
+    </row>
+    <row r="144" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="DM144" s="9">
-        <v>25.8379764556885</v>
-      </c>
-    </row>
-    <row r="145">
+      <c r="DM144" s="8">
+        <v>25.837976455688501</v>
+      </c>
+    </row>
+    <row r="145" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="CD145" s="9">
-        <v>18.6679512894824</v>
-      </c>
-      <c r="DM145" s="9">
-        <v>21.5365371704102</v>
-      </c>
-    </row>
-    <row r="146">
+      <c r="CD145" s="8">
+        <v>18.667951289482399</v>
+      </c>
+      <c r="DM145" s="8">
+        <v>21.536537170410199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="DM146" s="9">
-        <v>25.9379901885986</v>
-      </c>
-    </row>
-    <row r="147">
+      <c r="DM146" s="8">
+        <v>25.937990188598601</v>
+      </c>
+    </row>
+    <row r="147" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="DM147" s="9">
-        <v>19.7557220458984</v>
-      </c>
-    </row>
-    <row r="148">
+      <c r="DM147" s="8">
+        <v>19.755722045898398</v>
+      </c>
+    </row>
+    <row r="148" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="AU148" s="9">
-        <v>19.4</v>
-      </c>
-      <c r="BE148" s="9">
+      <c r="AU148" s="8">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="BE148" s="8">
         <v>20.8</v>
       </c>
-      <c r="BY148" s="9">
+      <c r="BY148" s="8">
         <v>23.6</v>
       </c>
-      <c r="CD148" s="9">
-        <v>24.2481698705288</v>
-      </c>
-      <c r="CX148" s="9">
+      <c r="CD148" s="8">
+        <v>24.248169870528798</v>
+      </c>
+      <c r="CX148" s="8">
         <v>27.1</v>
       </c>
-      <c r="DM148" s="9">
+      <c r="DM148" s="8">
         <v>26.5067749023438</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="BE149" s="9">
+      <c r="BE149" s="8">
         <v>24.38</v>
       </c>
-      <c r="BT149" s="9">
+      <c r="BT149" s="8">
         <v>21.98</v>
       </c>
-      <c r="CD149" s="9">
+      <c r="CD149" s="8">
         <v>21.72</v>
       </c>
-      <c r="CW149" s="9">
+      <c r="CW149" s="8">
         <v>21.79</v>
       </c>
-      <c r="DM149" s="9">
-        <v>26.3646183013916</v>
-      </c>
-    </row>
-    <row r="150">
+      <c r="DM149" s="8">
+        <v>26.364618301391602</v>
+      </c>
+    </row>
+    <row r="150" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="DM150" s="9">
-        <v>30.2951374053955</v>
-      </c>
-    </row>
-    <row r="151">
+      <c r="DM150" s="8">
+        <v>30.295137405395501</v>
+      </c>
+    </row>
+    <row r="151" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="CD151" s="9">
+      <c r="CD151" s="8">
         <v>22.3080205075543</v>
       </c>
-      <c r="DM151" s="9">
-        <v>21.2281646728516</v>
-      </c>
-    </row>
-    <row r="152">
+      <c r="DM151" s="8">
+        <v>21.228164672851602</v>
+      </c>
+    </row>
+    <row r="152" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="CN152" s="9">
-        <v>25.7485672179884</v>
-      </c>
-      <c r="DM152" s="9">
-        <v>27.9038009643555</v>
-      </c>
-    </row>
-    <row r="153">
+      <c r="CN152" s="8">
+        <v>25.748567217988398</v>
+      </c>
+      <c r="DM152" s="8">
+        <v>27.903800964355501</v>
+      </c>
+    </row>
+    <row r="153" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="AD153" s="9">
+      <c r="AD153" s="8">
         <v>24.19</v>
       </c>
-      <c r="AH153" s="9">
+      <c r="AH153" s="8">
         <v>24.47</v>
       </c>
-      <c r="AN153" s="9">
+      <c r="AN153" s="8">
         <v>25.06</v>
       </c>
-      <c r="AQ153" s="9">
+      <c r="AQ153" s="8">
         <v>25.76</v>
       </c>
-      <c r="AU153" s="9">
+      <c r="AU153" s="8">
         <v>25.83</v>
       </c>
-      <c r="AZ153" s="9">
+      <c r="AZ153" s="8">
         <v>26.65</v>
       </c>
-      <c r="BJ153" s="9">
+      <c r="BJ153" s="8">
         <v>26.43</v>
       </c>
-      <c r="CE153" s="9">
+      <c r="CE153" s="8">
         <v>24.52</v>
       </c>
-      <c r="CM153" s="9">
+      <c r="CM153" s="8">
         <v>23.4</v>
       </c>
-      <c r="CU153" s="9">
+      <c r="CU153" s="8">
         <v>24.6</v>
       </c>
-      <c r="DM153" s="9">
-        <v>29.3057842254639</v>
-      </c>
-    </row>
-    <row r="154">
+      <c r="DM153" s="8">
+        <v>29.305784225463899</v>
+      </c>
+    </row>
+    <row r="154" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="N154" s="9">
-        <v>16.9</v>
-      </c>
-      <c r="Y154" s="9">
-        <v>16.9</v>
-      </c>
-      <c r="AI154" s="9">
+      <c r="N154" s="8">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="Y154" s="8">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AI154" s="8">
         <v>18.3</v>
       </c>
-      <c r="AO154" s="9">
+      <c r="AO154" s="8">
         <v>20.8</v>
       </c>
-      <c r="AR154" s="9">
+      <c r="AR154" s="8">
         <v>21.4</v>
       </c>
-      <c r="BF154" s="9">
+      <c r="BF154" s="8">
         <v>20.7</v>
       </c>
-      <c r="BM154" s="9">
+      <c r="BM154" s="8">
         <v>20.9</v>
       </c>
-      <c r="BW154" s="9">
+      <c r="BW154" s="8">
         <v>22.1</v>
       </c>
-      <c r="CE154" s="9">
-        <v>23.4960748286743</v>
-      </c>
-      <c r="CI154" s="9">
+      <c r="CE154" s="8">
+        <v>23.496074828674299</v>
+      </c>
+      <c r="CI154" s="8">
         <v>25.1</v>
       </c>
-      <c r="CR154" s="9">
+      <c r="CR154" s="8">
         <v>24.7</v>
       </c>
-      <c r="DM154" s="9">
+      <c r="DM154" s="8">
         <v>25.2637119293213</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="CG155" s="9">
-        <v>18.7073176227478</v>
-      </c>
-      <c r="DM155" s="9">
-        <v>22.6663284301758</v>
-      </c>
-    </row>
-    <row r="156">
+      <c r="CG155" s="8">
+        <v>18.707317622747802</v>
+      </c>
+      <c r="DM155" s="8">
+        <v>22.666328430175799</v>
+      </c>
+    </row>
+    <row r="156" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="BX156" s="9">
+      <c r="BX156" s="8">
         <v>18.6180375680173</v>
       </c>
-      <c r="CD156" s="9">
+      <c r="CD156" s="8">
         <v>18.6180375680173</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="BT157" s="9">
+      <c r="BT157" s="8">
         <v>21.2</v>
       </c>
-      <c r="CC157" s="9">
+      <c r="CC157" s="8">
         <v>23.9</v>
       </c>
-      <c r="CD157" s="9">
+      <c r="CD157" s="8">
         <v>24.3</v>
       </c>
-      <c r="CE157" s="9">
+      <c r="CE157" s="8">
         <v>24.7</v>
       </c>
-      <c r="CF157" s="9">
+      <c r="CF157" s="8">
         <v>24.6</v>
       </c>
-      <c r="CG157" s="9">
+      <c r="CG157" s="8">
         <v>24.9</v>
       </c>
-      <c r="CH157" s="9">
+      <c r="CH157" s="8">
         <v>24.6</v>
       </c>
-      <c r="CI157" s="9">
+      <c r="CI157" s="8">
         <v>24.6</v>
       </c>
-      <c r="CJ157" s="9">
+      <c r="CJ157" s="8">
         <v>24.7</v>
       </c>
-      <c r="CK157" s="9">
+      <c r="CK157" s="8">
         <v>24.7</v>
       </c>
-      <c r="CL157" s="9">
+      <c r="CL157" s="8">
         <v>25.4</v>
       </c>
-      <c r="CM157" s="9">
+      <c r="CM157" s="8">
         <v>24.7</v>
       </c>
-      <c r="DM157" s="9">
-        <v>25.9596500396728</v>
-      </c>
-    </row>
-    <row r="158">
+      <c r="DM157" s="8">
+        <v>25.959650039672798</v>
+      </c>
+    </row>
+    <row r="158" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="J158" s="9">
-        <v>26.0</v>
-      </c>
-      <c r="Y158" s="9">
+      <c r="J158" s="8">
+        <v>26</v>
+      </c>
+      <c r="Y158" s="8">
         <v>27.1</v>
       </c>
-      <c r="AB158" s="9">
+      <c r="AB158" s="8">
         <v>27.1</v>
       </c>
-      <c r="AE158" s="9">
+      <c r="AE158" s="8">
         <v>26.8</v>
       </c>
-      <c r="AH158" s="9">
+      <c r="AH158" s="8">
         <v>26.8</v>
       </c>
-      <c r="AN158" s="9">
+      <c r="AN158" s="8">
         <v>26.4</v>
       </c>
-      <c r="AQ158" s="9">
+      <c r="AQ158" s="8">
         <v>26.5</v>
       </c>
-      <c r="AU158" s="9">
+      <c r="AU158" s="8">
         <v>26.5</v>
       </c>
-      <c r="AZ158" s="9">
+      <c r="AZ158" s="8">
         <v>26.5</v>
       </c>
-      <c r="BH158" s="9">
+      <c r="BH158" s="8">
         <v>25.9</v>
       </c>
-      <c r="BT158" s="9">
-        <v>25.0</v>
-      </c>
-      <c r="CD158" s="9">
+      <c r="BT158" s="8">
+        <v>25</v>
+      </c>
+      <c r="CD158" s="8">
         <v>23.7</v>
       </c>
-      <c r="CN158" s="9">
+      <c r="CN158" s="8">
         <v>25.2</v>
       </c>
-      <c r="CX158" s="9">
+      <c r="CX158" s="8">
         <v>27.7</v>
       </c>
-      <c r="DM158" s="9">
-        <v>32.4049835205078</v>
-      </c>
-    </row>
-    <row r="159">
+      <c r="DM158" s="8">
+        <v>32.404983520507798</v>
+      </c>
+    </row>
+    <row r="159" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="BF159" s="9">
+      <c r="BF159" s="8">
         <v>26.26</v>
       </c>
-      <c r="BH159" s="9">
+      <c r="BH159" s="8">
         <v>25.94</v>
       </c>
-      <c r="BJ159" s="9">
+      <c r="BJ159" s="8">
         <v>25.59</v>
       </c>
-      <c r="CD159" s="9">
+      <c r="CD159" s="8">
         <v>22.87</v>
       </c>
-      <c r="CN159" s="9">
+      <c r="CN159" s="8">
         <v>23.14</v>
       </c>
-      <c r="CX159" s="9">
+      <c r="CX159" s="8">
         <v>25.87</v>
       </c>
-      <c r="DM159" s="9">
-        <v>29.1151905059814</v>
-      </c>
-    </row>
-    <row r="160">
+      <c r="DM159" s="8">
+        <v>29.115190505981399</v>
+      </c>
+    </row>
+    <row r="160" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="CD160" s="9">
-        <v>20.668661418578</v>
-      </c>
-    </row>
-    <row r="161">
+      <c r="CD160" s="8">
+        <v>20.668661418578001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="AK161" s="9">
-        <v>18.1</v>
-      </c>
-      <c r="AP161" s="9">
-        <v>19.1</v>
-      </c>
-      <c r="AQ161" s="9">
+      <c r="AK161" s="8">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AP161" s="8">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AQ161" s="8">
         <v>19.2</v>
       </c>
-      <c r="AS161" s="9">
+      <c r="AS161" s="8">
         <v>19.2</v>
       </c>
-      <c r="AU161" s="9">
-        <v>19.4</v>
-      </c>
-      <c r="AW161" s="9">
+      <c r="AU161" s="8">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AW161" s="8">
         <v>19.7</v>
       </c>
-      <c r="AZ161" s="9">
-        <v>19.6</v>
-      </c>
-      <c r="BO161" s="9">
+      <c r="AZ161" s="8">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="BO161" s="8">
         <v>21.1</v>
       </c>
-      <c r="BY161" s="9">
+      <c r="BY161" s="8">
         <v>21.8</v>
       </c>
-      <c r="CI161" s="9">
+      <c r="CI161" s="8">
         <v>23.3</v>
       </c>
-      <c r="CN161" s="9">
+      <c r="CN161" s="8">
         <v>23.8</v>
       </c>
-      <c r="CX161" s="9">
+      <c r="CX161" s="8">
         <v>25.9</v>
       </c>
-      <c r="DM161" s="9">
+      <c r="DM161" s="8">
         <v>27.8</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="DM162" s="9">
-        <v>20.9141407012939</v>
-      </c>
-    </row>
-    <row r="163">
+      <c r="DM162" s="8">
+        <v>20.914140701293899</v>
+      </c>
+    </row>
+    <row r="163" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="CL163" s="9">
+      <c r="CL163" s="8">
         <v>19.1285754164781</v>
       </c>
-      <c r="DM163" s="9">
-        <v>19.9692649841309</v>
-      </c>
-    </row>
-    <row r="164">
+      <c r="DM163" s="8">
+        <v>19.969264984130898</v>
+      </c>
+    </row>
+    <row r="164" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="BE164" s="9">
+      <c r="BE164" s="8">
         <v>21.1</v>
       </c>
-      <c r="BO164" s="9">
+      <c r="BO164" s="8">
         <v>22.1</v>
       </c>
-      <c r="BT164" s="9">
+      <c r="BT164" s="8">
         <v>21.6</v>
       </c>
-      <c r="CD164" s="9">
-        <v>21.9669917191437</v>
-      </c>
-      <c r="CN164" s="9">
+      <c r="CD164" s="8">
+        <v>21.966991719143699</v>
+      </c>
+      <c r="CN164" s="8">
         <v>22.8</v>
       </c>
-      <c r="DM164" s="9">
-        <v>24.056095123291</v>
-      </c>
-    </row>
-    <row r="165">
+      <c r="DM164" s="8">
+        <v>24.056095123291001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="DM165" s="9">
-        <v>21.3490467071533</v>
-      </c>
-    </row>
-    <row r="166">
+      <c r="DM165" s="8">
+        <v>21.349046707153299</v>
+      </c>
+    </row>
+    <row r="166" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="CJ166" s="9">
-        <v>24.3085974923986</v>
-      </c>
-      <c r="DM166" s="9">
-        <v>25.5024166107178</v>
-      </c>
-    </row>
-    <row r="167">
+      <c r="CJ166" s="8">
+        <v>24.308597492398601</v>
+      </c>
+      <c r="DM166" s="8">
+        <v>25.502416610717798</v>
+      </c>
+    </row>
+    <row r="167" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="CD167" s="9">
-        <v>24.0075541466629</v>
-      </c>
-      <c r="DM167" s="9">
+      <c r="CD167" s="8">
+        <v>24.007554146662901</v>
+      </c>
+      <c r="DM167" s="8">
         <v>26.7806072235107</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="BP168" s="9">
+      <c r="BP168" s="8">
         <v>19.5</v>
       </c>
-      <c r="BZ168" s="9">
+      <c r="BZ168" s="8">
         <v>20.8</v>
       </c>
-      <c r="CI168" s="9">
+      <c r="CI168" s="8">
         <v>22.7</v>
       </c>
-      <c r="CR168" s="9">
+      <c r="CR168" s="8">
         <v>24.3</v>
       </c>
-      <c r="CW168" s="9">
+      <c r="CW168" s="8">
         <v>25.2</v>
       </c>
-      <c r="DB168" s="9">
+      <c r="DB168" s="8">
         <v>26.3</v>
       </c>
-      <c r="DI168" s="9">
+      <c r="DI168" s="8">
         <v>29.2</v>
       </c>
-      <c r="DM168" s="9">
+      <c r="DM168" s="8">
         <v>29.2</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="CI169" s="9">
-        <v>20.1</v>
-      </c>
-      <c r="DM169" s="9">
-        <v>23.047908782959</v>
-      </c>
-    </row>
-    <row r="170">
+      <c r="CI169" s="8">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="DM169" s="8">
+        <v>23.047908782958999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="DM170" s="9">
-        <v>23.3668346405029</v>
-      </c>
-    </row>
-    <row r="171">
+      <c r="DM170" s="8">
+        <v>23.366834640502901</v>
+      </c>
+    </row>
+    <row r="171" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="CC171" s="9">
+      <c r="CC171" s="8">
         <v>17.7</v>
       </c>
-      <c r="DM171" s="9">
-        <v>20.2470417022705</v>
-      </c>
-    </row>
-    <row r="172">
+      <c r="DM171" s="8">
+        <v>20.247041702270501</v>
+      </c>
+    </row>
+    <row r="172" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A172" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="AG172" s="9">
+      <c r="AG172" s="8">
         <v>20.8</v>
       </c>
-      <c r="CM172" s="9">
-        <v>21.4459745762712</v>
-      </c>
-      <c r="DM172" s="9">
+      <c r="CM172" s="8">
+        <v>21.445974576271201</v>
+      </c>
+      <c r="DM172" s="8">
         <v>22.8165378570557</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="CI173" s="9">
-        <v>18.0</v>
-      </c>
-      <c r="DM173" s="9">
-        <v>23.0867366790772</v>
-      </c>
-    </row>
-    <row r="174">
+      <c r="CI173" s="8">
+        <v>18</v>
+      </c>
+      <c r="DM173" s="8">
+        <v>23.086736679077202</v>
+      </c>
+    </row>
+    <row r="174" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B174" s="9">
+      <c r="B174" s="8">
         <v>25.6</v>
       </c>
-      <c r="C174" s="9">
+      <c r="C174" s="8">
         <v>26.6</v>
       </c>
-      <c r="F174" s="9">
+      <c r="F174" s="8">
         <v>25.3</v>
       </c>
-      <c r="I174" s="9">
+      <c r="I174" s="8">
         <v>23.5</v>
       </c>
-      <c r="M174" s="9">
+      <c r="M174" s="8">
         <v>22.6</v>
       </c>
-      <c r="S174" s="9">
+      <c r="S174" s="8">
         <v>24.3</v>
       </c>
-      <c r="X174" s="9">
+      <c r="X174" s="8">
         <v>24.6</v>
       </c>
-      <c r="AS174" s="9">
+      <c r="AS174" s="8">
         <v>25.64</v>
       </c>
-      <c r="AU174" s="9">
+      <c r="AU174" s="8">
         <v>26.12</v>
       </c>
-      <c r="AW174" s="9">
+      <c r="AW174" s="8">
         <v>25.67</v>
       </c>
-      <c r="AZ174" s="9">
+      <c r="AZ174" s="8">
         <v>25.09</v>
       </c>
-      <c r="BE174" s="9">
+      <c r="BE174" s="8">
         <v>24.08</v>
       </c>
-      <c r="BH174" s="9">
+      <c r="BH174" s="8">
         <v>24.17</v>
       </c>
-      <c r="BI174" s="9">
-        <v>24.0</v>
-      </c>
-      <c r="BJ174" s="9">
+      <c r="BI174" s="8">
+        <v>24</v>
+      </c>
+      <c r="BJ174" s="8">
         <v>23.93</v>
       </c>
-      <c r="BK174" s="9">
+      <c r="BK174" s="8">
         <v>23.78</v>
       </c>
-      <c r="BL174" s="9">
+      <c r="BL174" s="8">
         <v>23.7</v>
       </c>
-      <c r="BR174" s="9">
+      <c r="BR174" s="8">
         <v>22.76</v>
       </c>
-      <c r="CB174" s="9">
+      <c r="CB174" s="8">
         <v>22.17</v>
       </c>
-      <c r="CE174" s="9">
+      <c r="CE174" s="8">
         <v>22.35</v>
       </c>
-      <c r="CN174" s="9">
+      <c r="CN174" s="8">
         <v>22.98</v>
       </c>
-      <c r="CW174" s="9">
+      <c r="CW174" s="8">
         <v>24.79</v>
       </c>
-      <c r="DM174" s="9">
-        <v>29.7516212463379</v>
-      </c>
-    </row>
-    <row r="175">
+      <c r="DM174" s="8">
+        <v>29.751621246337901</v>
+      </c>
+    </row>
+    <row r="175" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K175" s="9">
-        <v>23.0</v>
-      </c>
-      <c r="V175" s="9">
+      <c r="K175" s="8">
+        <v>23</v>
+      </c>
+      <c r="V175" s="8">
         <v>22.8</v>
       </c>
-      <c r="AE175" s="9">
-        <v>22.0</v>
-      </c>
-      <c r="AH175" s="9">
+      <c r="AE175" s="8">
+        <v>22</v>
+      </c>
+      <c r="AH175" s="8">
         <v>21.9</v>
       </c>
-      <c r="AN175" s="9">
+      <c r="AN175" s="8">
         <v>21.6</v>
       </c>
-      <c r="AQ175" s="9">
+      <c r="AQ175" s="8">
         <v>21.2</v>
       </c>
-      <c r="AU175" s="9">
+      <c r="AU175" s="8">
         <v>21.3</v>
       </c>
-      <c r="AZ175" s="9">
+      <c r="AZ175" s="8">
         <v>21.5</v>
       </c>
-      <c r="BJ175" s="9">
+      <c r="BJ175" s="8">
         <v>20.3</v>
       </c>
-      <c r="BT175" s="9">
+      <c r="BT175" s="8">
         <v>20.3</v>
       </c>
-      <c r="CD175" s="9">
+      <c r="CD175" s="8">
         <v>20.8</v>
       </c>
-      <c r="CN175" s="9">
-        <v>22.0</v>
-      </c>
-      <c r="CX175" s="9">
+      <c r="CN175" s="8">
+        <v>22</v>
+      </c>
+      <c r="CX175" s="8">
         <v>23.9</v>
       </c>
-      <c r="CY175" s="9">
+      <c r="CY175" s="8">
         <v>24.1</v>
       </c>
-      <c r="CZ175" s="9">
+      <c r="CZ175" s="8">
         <v>24.4</v>
       </c>
-      <c r="DA175" s="9">
+      <c r="DA175" s="8">
         <v>24.5</v>
       </c>
-      <c r="DB175" s="9">
+      <c r="DB175" s="8">
         <v>24.5</v>
       </c>
-      <c r="DC175" s="9">
+      <c r="DC175" s="8">
         <v>24.5</v>
       </c>
-      <c r="DD175" s="9">
+      <c r="DD175" s="8">
         <v>24.8</v>
       </c>
-      <c r="DE175" s="9">
-        <v>25.0</v>
-      </c>
-      <c r="DF175" s="9">
-        <v>25.0</v>
-      </c>
-      <c r="DG175" s="9">
+      <c r="DE175" s="8">
+        <v>25</v>
+      </c>
+      <c r="DF175" s="8">
+        <v>25</v>
+      </c>
+      <c r="DG175" s="8">
         <v>25.1</v>
       </c>
-      <c r="DH175" s="9">
+      <c r="DH175" s="8">
         <v>25.1</v>
       </c>
-      <c r="DI175" s="9">
+      <c r="DI175" s="8">
         <v>25.1</v>
       </c>
-      <c r="DJ175" s="9">
+      <c r="DJ175" s="8">
         <v>25.3</v>
       </c>
-      <c r="DK175" s="9">
+      <c r="DK175" s="8">
         <v>25.3</v>
       </c>
-      <c r="DL175" s="9">
+      <c r="DL175" s="8">
         <v>25.3</v>
       </c>
-      <c r="DM175" s="9">
+      <c r="DM175" s="8">
         <v>25.3</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="CI176" s="9">
-        <v>22.4820887286143</v>
-      </c>
-      <c r="DM176" s="9">
-        <v>23.3004932403564</v>
-      </c>
-    </row>
-    <row r="177">
+      <c r="CI176" s="8">
+        <v>22.482088728614301</v>
+      </c>
+      <c r="DM176" s="8">
+        <v>23.300493240356399</v>
+      </c>
+    </row>
+    <row r="177" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="DM177" s="9">
+      <c r="DM177" s="8">
         <v>20.5831623077393</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="CM178" s="9">
-        <v>22.0384459901841</v>
-      </c>
-      <c r="DM178" s="9">
-        <v>22.6080265045166</v>
-      </c>
-    </row>
-    <row r="179">
+      <c r="CM178" s="8">
+        <v>22.038445990184101</v>
+      </c>
+      <c r="DM178" s="8">
+        <v>22.608026504516602</v>
+      </c>
+    </row>
+    <row r="179" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="CE179" s="9">
-        <v>20.1489576049675</v>
-      </c>
-      <c r="DM179" s="9">
+      <c r="CE179" s="8">
+        <v>20.148957604967499</v>
+      </c>
+      <c r="DM179" s="8">
         <v>22.7484035491943</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="CA180" s="9">
-        <v>21.9272705324473</v>
-      </c>
-      <c r="DM180" s="9">
+      <c r="CA180" s="8">
+        <v>21.927270532447299</v>
+      </c>
+      <c r="DM180" s="8">
         <v>22.8644924163818</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="CD181" s="9">
-        <v>17.974962184131</v>
-      </c>
-    </row>
-    <row r="182">
+      <c r="CD181" s="8">
+        <v>17.974962184131002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="DM182" s="9">
-        <v>23.2139110565186</v>
-      </c>
-    </row>
-    <row r="183">
+      <c r="DM182" s="8">
+        <v>23.213911056518601</v>
+      </c>
+    </row>
+    <row r="183" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BT183" s="9">
+      <c r="BT183" s="8">
         <v>20.828148638441</v>
       </c>
-      <c r="DM183" s="9">
+      <c r="DM183" s="8">
         <v>29.9101161956787</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="BQ184" s="9">
+      <c r="BQ184" s="8">
         <v>16.7</v>
       </c>
-      <c r="CM184" s="9">
-        <v>16.9</v>
-      </c>
-      <c r="DE184" s="9">
-        <v>20.6703662872314</v>
-      </c>
-      <c r="DM184" s="9">
+      <c r="CM184" s="8">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="DE184" s="8">
+        <v>20.670366287231399</v>
+      </c>
+      <c r="DM184" s="8">
         <v>21.67</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="CC185" s="9">
-        <v>18.2344836461533</v>
-      </c>
-      <c r="DM185" s="9">
-        <v>20.5310611724854</v>
-      </c>
-    </row>
-    <row r="186">
+      <c r="CC185" s="8">
+        <v>18.234483646153301</v>
+      </c>
+      <c r="DM185" s="8">
+        <v>20.531061172485401</v>
+      </c>
+    </row>
+    <row r="186" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="CP186" s="9">
-        <v>20.301701412548</v>
-      </c>
-      <c r="DM186" s="9">
+      <c r="CP186" s="8">
+        <v>20.301701412547999</v>
+      </c>
+      <c r="DM186" s="8">
         <v>21.0311889648438</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.43"/>
-    <col customWidth="1" min="2" max="2" width="44.0"/>
-    <col customWidth="1" min="3" max="3" width="80.14"/>
-    <col customWidth="1" min="4" max="4" width="40.14"/>
-    <col customWidth="1" hidden="1" min="5" max="6" width="9.29"/>
-    <col customWidth="1" min="7" max="9" width="5.14"/>
-    <col customWidth="1" min="10" max="10" width="6.14"/>
-    <col customWidth="1" min="11" max="11" width="7.14"/>
-    <col customWidth="1" min="12" max="13" width="8.14"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="80.140625" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
+    <col min="5" max="6" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="5.140625" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="13" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -4568,251 +4894,251 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" ht="39.0" customHeight="1">
+    <row r="2" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-    </row>
-    <row r="3" ht="64.5" customHeight="1">
+      <c r="C2" s="58"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-    </row>
-    <row r="4">
+      <c r="C3" s="60"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-    </row>
-    <row r="5" ht="18.0" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="33" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="26"/>
+      <c r="B5" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-    </row>
-    <row r="6" ht="15.0" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="21" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-    </row>
-    <row r="7" ht="49.5" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="40" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-    </row>
-    <row r="8" ht="15.0" customHeight="1">
+      <c r="D7" s="34"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-    </row>
-    <row r="9" ht="15.0" customHeight="1">
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-    </row>
-    <row r="10" ht="18.0" customHeight="1">
+      <c r="C9" s="62"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="51" t="str">
+      <c r="C10" s="43" t="str">
         <f>HYPERLINK("http://www.gapminder.org/downloads/documentation/gd009","http://www.gapminder.org/downloads/documentation/gd009")</f>
         <v>http://www.gapminder.org/downloads/documentation/gd009</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-    </row>
-    <row r="11">
+      <c r="D10" s="32"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-    </row>
-    <row r="12" ht="18.0" customHeight="1">
+      <c r="B11" s="48"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
+      <c r="C12" s="30"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1">
+      <c r="D13" s="32"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="C14" s="62">
-        <v>40295.0</v>
-      </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-    </row>
-    <row r="16">
+      <c r="C14" s="54">
+        <v>40295</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="64"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -4824,10 +5150,10 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="64"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -4839,10 +5165,10 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="64"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -4854,10 +5180,10 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="64"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -4869,10 +5195,10 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="64"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -4891,252 +5217,256 @@
     <mergeCell ref="B9:C9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C10"/>
+    <hyperlink ref="C10" r:id="rId1" display="http://www.gapminder.org/downloads/documentation/gd009"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="55.14"/>
-    <col customWidth="1" min="2" max="6" width="5.14"/>
+    <col min="1" max="1" width="55.140625" customWidth="1"/>
+    <col min="2" max="6" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="63.0" customHeight="1"/>
-    <row r="13" ht="36.0" customHeight="1"/>
-    <row r="18" ht="27.0" customHeight="1"/>
+    <row r="7" spans="1:1" ht="63" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.14"/>
-    <col customWidth="1" min="2" max="2" width="56.14"/>
-    <col customWidth="1" hidden="1" min="3" max="3" width="9.29"/>
-    <col customWidth="1" min="4" max="4" width="50.14"/>
-    <col customWidth="1" min="5" max="5" width="5.14"/>
-    <col customWidth="1" min="6" max="6" width="6.14"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39.0" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" ht="45.0" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="26" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" ht="60.0" customHeight="1">
-      <c r="A4" s="20" t="s">
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="30" t="str">
+      <c r="B4" s="25" t="str">
         <f>HYPERLINK("http://spreadsheets.google.com/pub?key=t4eF8H_jq_xyKCUHAX6VT1g&amp;gid=1","http://spreadsheets.google.com/pub?key=t4eF8H_jq_xyKCUHAX6VT1g&amp;gid=1")</f>
         <v>http://spreadsheets.google.com/pub?key=t4eF8H_jq_xyKCUHAX6VT1g&amp;gid=1</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="26" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" ht="30.0" customHeight="1">
-      <c r="A5" s="20" t="s">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="26" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" ht="30.0" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="36"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B4"/>
+    <hyperlink ref="B4" r:id="rId1" display="http://spreadsheets.google.com/pub?key=t4eF8H_jq_xyKCUHAX6VT1g&amp;gid=1"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" hidden="1" min="1" max="1" width="9.29"/>
-    <col customWidth="1" min="2" max="2" width="25.14"/>
-    <col customWidth="1" min="3" max="3" width="80.14"/>
-    <col customWidth="1" hidden="1" min="4" max="5" width="9.29"/>
-    <col customWidth="1" min="6" max="6" width="5.14"/>
+    <col min="1" max="1" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="80.140625" customWidth="1"/>
+    <col min="4" max="5" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39.0" customHeight="1">
-      <c r="A1" s="17"/>
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13"/>
+      <c r="B1" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="48" t="s">
+      <c r="C1" s="64"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="13"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" ht="24.0" customHeight="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="53" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="42"/>
+      <c r="B4" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="55"/>
-    </row>
-    <row r="5" ht="24.0" customHeight="1">
-      <c r="A5" s="50"/>
-      <c r="B5" s="53" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="47"/>
+    </row>
+    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="42"/>
+      <c r="B5" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="55"/>
-    </row>
-    <row r="6" ht="24.0" customHeight="1">
-      <c r="A6" s="50"/>
-      <c r="B6" s="53" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="47"/>
+    </row>
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="42"/>
+      <c r="B6" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="55"/>
-    </row>
-    <row r="7" ht="18.0" customHeight="1">
-      <c r="A7" s="50"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="55"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="17"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" ht="15.0" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="47"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="42"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="47"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="15.14"/>
-    <col customWidth="1" min="3" max="6" width="5.14"/>
+    <col min="1" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="6" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="44" t="s">
         <v>207</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>